--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -163,10 +163,10 @@
     <t>R4</t>
   </si>
   <si>
+    <t>1.0</t>
+  </si>
+  <si>
     <t>100.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
   </si>
   <si>
     <t>2.0</t>
@@ -898,22 +898,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -921,46 +921,46 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -971,59 +971,59 @@
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>

--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="50">
   <si>
     <t>R1</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>200.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
   </si>
 </sst>
 </file>
@@ -830,7 +836,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -907,13 +913,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -921,7 +927,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -932,7 +938,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -943,7 +949,7 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -954,7 +960,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -965,10 +971,10 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>44</v>
@@ -979,7 +985,7 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
@@ -990,7 +996,7 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
@@ -1001,7 +1007,7 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -1012,10 +1018,10 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -1026,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -1037,7 +1043,7 @@
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -1048,6 +1054,17 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1058,7 +1075,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:I11"/>
@@ -1147,6 +1164,215 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1154,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1239,6 +1465,1381 @@
       </c>
       <c r="H3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D103" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>45</v>
+      </c>
+      <c r="D111" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" t="s">
+        <v>45</v>
+      </c>
+      <c r="D113" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s">
+        <v>47</v>
+      </c>
+      <c r="C114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" t="s">
+        <v>44</v>
+      </c>
+      <c r="D115" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" t="s">
+        <v>44</v>
+      </c>
+      <c r="D118" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D121" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" t="s">
+        <v>46</v>
+      </c>
+      <c r="D122" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="s">
+        <v>47</v>
+      </c>
+      <c r="C123" t="s">
+        <v>46</v>
+      </c>
+      <c r="D123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" t="s">
+        <v>47</v>
+      </c>
+      <c r="D125" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" t="s">
+        <v>47</v>
+      </c>
+      <c r="D126" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" t="s">
+        <v>47</v>
+      </c>
+      <c r="D127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" t="s">
+        <v>47</v>
+      </c>
+      <c r="D128" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelin Şenkula\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelin Şenkula\Documents\GitHub\localrepo\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="850" windowHeight="7695" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" tabRatio="850" windowHeight="2610" windowWidth="12840" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" r:id="rId1" sheetId="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="80">
   <si>
     <t>R1</t>
   </si>
@@ -115,15 +115,6 @@
     <t>Types</t>
   </si>
   <si>
-    <t># of ECs</t>
-  </si>
-  <si>
-    <t>Values for ECs</t>
-  </si>
-  <si>
-    <t>Bondary Values</t>
-  </si>
-  <si>
     <t>Integer</t>
   </si>
   <si>
@@ -163,25 +154,124 @@
     <t>R4</t>
   </si>
   <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | a = b = c }</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | a = b, a ≠ c}</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | a = c, a ≠ b}</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | b = c, a ≠ b}</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | a ≠ b, a ≠ c, b ≠ c}</t>
+  </si>
+  <si>
+    <t>EQ CLASSES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6 </t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | a ≥ b+c }</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | b ≥ a+c }</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | c ≥ a+b}</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>Boundary Values</t>
+  </si>
+  <si>
+    <t>ECs and Values</t>
+  </si>
+  <si>
     <t>1.0</t>
   </si>
   <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
     <t>100.0</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
     <t>199.0</t>
   </si>
   <si>
     <t>200.0</t>
   </si>
   <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>498.0</t>
+  </si>
+  <si>
+    <t>499.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>998.0</t>
+  </si>
+  <si>
+    <t>999.0</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
     <t>201.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>1000.0</t>
   </si>
 </sst>
 </file>
@@ -189,7 +279,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,16 +305,55 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -241,16 +370,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="24" name="Bağlı Hücre" xfId="1"/>
@@ -596,23 +814,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -623,174 +841,345 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="14.5703125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="18.28515625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="19.5703125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.42578125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
+    <col min="5" max="11" bestFit="true" customWidth="true" width="3.28515625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="15.75" r="1" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="19"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" spans="1:18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:12" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" s="8">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11">
+        <v>2</v>
+      </c>
+      <c r="O3" s="11">
+        <v>100</v>
+      </c>
+      <c r="P3" s="11">
+        <v>199</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>200</v>
+      </c>
+      <c r="R3" s="11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>4</v>
+      </c>
+      <c r="I4" s="8">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="J4" s="8">
+        <v>4</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11">
+        <v>5</v>
+      </c>
+      <c r="M4" s="11">
+        <v>6</v>
+      </c>
+      <c r="N4" s="11">
+        <v>7</v>
+      </c>
+      <c r="O4" s="11">
+        <v>250</v>
+      </c>
+      <c r="P4" s="11">
+        <v>498</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>499</v>
+      </c>
+      <c r="R4" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>199</v>
-      </c>
-      <c r="K3">
-        <v>200</v>
-      </c>
-      <c r="L3">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="G5" s="8">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>199</v>
-      </c>
-      <c r="K4">
-        <v>200</v>
-      </c>
-      <c r="L4">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="H5" s="8">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>199</v>
-      </c>
-      <c r="K5">
-        <v>200</v>
-      </c>
-      <c r="L5">
-        <v>201</v>
+      <c r="J5" s="8">
+        <v>2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>4</v>
+      </c>
+      <c r="L5" s="11">
+        <v>10</v>
+      </c>
+      <c r="M5" s="11">
+        <v>11</v>
+      </c>
+      <c r="N5" s="11">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11">
+        <v>500</v>
+      </c>
+      <c r="P5" s="11">
+        <v>998</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>999</v>
+      </c>
+      <c r="R5" s="11">
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6"/>
     </row>
+    <row ht="15.75" r="7" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row ht="15.75" r="8" spans="1:18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -927,145 +1316,145 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1166,211 +1555,211 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1469,1377 +1860,1377 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D59" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D79" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D80" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D81" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D82" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C83" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D86" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C88" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D88" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D89" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D90" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D92" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C93" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D93" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D94" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D95" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D97" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D100" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D101" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D103" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C104" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D104" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D105" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C106" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D106" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D107" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D108" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D109" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C110" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D110" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D111" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C112" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D112" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C113" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D113" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C114" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D114" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C115" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D115" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C116" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D116" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D117" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D118" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C119" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D119" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D120" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C121" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D121" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C122" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D122" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C123" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D123" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C124" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D124" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C125" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D125" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C126" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D126" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C127" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D127" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D128" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="107">
   <si>
     <t>R1</t>
   </si>
@@ -157,121 +157,202 @@
     <t>D1</t>
   </si>
   <si>
-    <t>{a,b,c : 1..200 | a = b = c }</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
-    <t>{a,b,c : 1..200 | a = b, a ≠ c}</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
-    <t>{a,b,c : 1..200 | a = c, a ≠ b}</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
-    <t>{a,b,c : 1..200 | b = c, a ≠ b}</t>
+    <t>EQ CLASSES</t>
+  </si>
+  <si>
+    <t>Boundary Values</t>
+  </si>
+  <si>
+    <t>{month | month has 30 days}</t>
+  </si>
+  <si>
+    <t>{month | month has 31 days}</t>
+  </si>
+  <si>
+    <t>{month | month is February}</t>
+  </si>
+  <si>
+    <t>{day | 1 ≤ day ≤ 28}</t>
+  </si>
+  <si>
+    <t>{day | day = 29}</t>
+  </si>
+  <si>
+    <t>{day | day = 30}</t>
+  </si>
+  <si>
+    <t>{day | day=31}</t>
+  </si>
+  <si>
+    <t>{year | year = 1900}</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{year | 1812 ≤ year ≤ 2012 AND year ≠ 1900 AND (0 = year mod 4} </t>
+  </si>
+  <si>
+    <t>{year | 1812 ≤ year ≤ 2012 AND 0 ≠ year mod 4}</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Valid ECs and Values</t>
+  </si>
+  <si>
+    <t>Invalid ECs and Values</t>
+  </si>
+  <si>
+    <t>Invalid Classes</t>
+  </si>
+  <si>
+    <t>{month | month &lt; 1}</t>
+  </si>
+  <si>
+    <t>{month | month &gt; 12}</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>{a,b,c : 1..200 | a ≠ b, a ≠ c, b ≠ c}</t>
-  </si>
-  <si>
-    <t>EQ CLASSES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6 </t>
-  </si>
-  <si>
-    <t>{a,b,c : 1..200 | a ≥ b+c }</t>
-  </si>
-  <si>
-    <t>{a,b,c : 1..200 | b ≥ a+c }</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>{a,b,c : 1..200 | c ≥ a+b}</t>
-  </si>
-  <si>
     <t>D6</t>
   </si>
   <si>
-    <t>Boundary Values</t>
-  </si>
-  <si>
-    <t>ECs and Values</t>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>{day | day &lt; 1}</t>
+  </si>
+  <si>
+    <t>{day | day &gt; 31}</t>
+  </si>
+  <si>
+    <t>{year | year &lt; 1812}</t>
+  </si>
+  <si>
+    <t>{year | year &gt; 2012}</t>
+  </si>
+  <si>
+    <t>Valid Classes</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>1912.0</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>250.0</t>
-  </si>
-  <si>
-    <t>500.0</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>199.0</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>498.0</t>
-  </si>
-  <si>
-    <t>499.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>1812.0</t>
+  </si>
+  <si>
+    <t>1813.0</t>
+  </si>
+  <si>
+    <t>2011.0</t>
+  </si>
+  <si>
+    <t>2012.0</t>
   </si>
   <si>
     <t>12.0</t>
   </si>
   <si>
-    <t>998.0</t>
-  </si>
-  <si>
-    <t>999.0</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>201.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>1000.0</t>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>1811.0</t>
+  </si>
+  <si>
+    <t>2013.0</t>
   </si>
 </sst>
 </file>
@@ -353,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -428,12 +509,27 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFF8001"/>
       </top>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,33 +538,44 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
     <xf applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="1"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="1"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="1"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="1"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="3" fontId="2" numFmtId="49" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="3" fontId="2" numFmtId="49" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="3" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="24" name="Bağlı Hücre" xfId="1"/>
@@ -841,10 +948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,329 +959,461 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="14.5703125" collapsed="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="29.140625" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.42578125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
-    <col min="5" max="11" bestFit="true" customWidth="true" width="3.28515625" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.28515625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.5703125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.5703125" collapsed="false"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="3.28515625" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.0" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="3.28515625" collapsed="false"/>
+    <col min="11" max="13" bestFit="true" customWidth="true" width="5.0" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="3.85546875" collapsed="false"/>
+    <col min="16" max="17" customWidth="true" width="3.85546875" collapsed="false"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" width="5.0" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row customHeight="1" ht="15.75" r="1" spans="1:26" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="12"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" spans="1:26" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:18" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="9" t="s">
+      <c r="G2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="H2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="U2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="V2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="W2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="X2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Y2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="Z2" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22">
+        <v>12</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21">
+        <v>15</v>
+      </c>
+      <c r="H4" s="21">
+        <v>29</v>
+      </c>
+      <c r="I4" s="21">
+        <v>30</v>
+      </c>
+      <c r="J4" s="21">
+        <v>31</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="22">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22">
+        <v>1</v>
+      </c>
+      <c r="V4" s="22">
         <v>2</v>
       </c>
-      <c r="F3" s="8">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8">
-        <v>3</v>
-      </c>
-      <c r="H3" s="8">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8">
-        <v>4</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8">
-        <v>2</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
-        <v>1</v>
-      </c>
-      <c r="N3" s="11">
-        <v>2</v>
-      </c>
-      <c r="O3" s="11">
-        <v>100</v>
-      </c>
-      <c r="P3" s="11">
-        <v>199</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>200</v>
-      </c>
-      <c r="R3" s="11">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="W4" s="22">
+        <v>15</v>
+      </c>
+      <c r="X4" s="22">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8">
-        <v>5</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>3</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2</v>
-      </c>
-      <c r="H4" s="8">
-        <v>4</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
-        <v>4</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11">
-        <v>5</v>
-      </c>
-      <c r="M4" s="11">
-        <v>6</v>
-      </c>
-      <c r="N4" s="11">
-        <v>7</v>
-      </c>
-      <c r="O4" s="11">
-        <v>250</v>
-      </c>
-      <c r="P4" s="11">
-        <v>498</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>499</v>
-      </c>
-      <c r="R4" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="8">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="8">
-        <v>5</v>
-      </c>
-      <c r="I5" s="8">
-        <v>2</v>
-      </c>
-      <c r="J5" s="8">
-        <v>2</v>
-      </c>
-      <c r="K5" s="8">
-        <v>4</v>
-      </c>
-      <c r="L5" s="11">
-        <v>10</v>
-      </c>
-      <c r="M5" s="11">
-        <v>11</v>
-      </c>
-      <c r="N5" s="11">
-        <v>12</v>
-      </c>
-      <c r="O5" s="11">
-        <v>500</v>
-      </c>
-      <c r="P5" s="11">
-        <v>998</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>999</v>
-      </c>
-      <c r="R5" s="11">
-        <v>1000</v>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21">
+        <v>1900</v>
+      </c>
+      <c r="L5" s="21">
+        <v>1996</v>
+      </c>
+      <c r="M5" s="21">
+        <v>1997</v>
+      </c>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" s="22">
+        <v>1811</v>
+      </c>
+      <c r="U5" s="22">
+        <v>1812</v>
+      </c>
+      <c r="V5" s="22">
+        <v>1813</v>
+      </c>
+      <c r="W5" s="22">
+        <v>1912</v>
+      </c>
+      <c r="X5" s="22">
+        <v>2011</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>2012</v>
+      </c>
+      <c r="Z5" s="22">
+        <v>2013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6"/>
     </row>
-    <row ht="15.75" r="7" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row ht="16.5" r="8" spans="1:26" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row ht="15.75" r="9" spans="1:26" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row ht="15.75" r="8" spans="1:18" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B15" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row ht="45" r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row ht="30" r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
-        <v>56</v>
+      <c r="B18" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1316,145 +1555,145 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1703,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:I11"/>
@@ -1555,211 +1794,200 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1860,1377 +2088,1377 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D68" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D82" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D83" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D84" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D87" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D88" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C90" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D91" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C92" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D92" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C93" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C94" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C95" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D95" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C96" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D96" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C97" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C98" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D98" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C99" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D100" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C101" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D101" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C102" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D102" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C103" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C104" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D104" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C105" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C106" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D106" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C107" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D107" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C108" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D108" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C109" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D109" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D110" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C111" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D111" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D112" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C113" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D113" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C114" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D114" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C115" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D115" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C116" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D116" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C117" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D117" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C118" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D118" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C119" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D119" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C120" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D120" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C121" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D121" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D122" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C123" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D123" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D124" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C125" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D125" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C126" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D126" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C127" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D127" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D128" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="263">
   <si>
     <t>R1</t>
   </si>
@@ -310,49 +310,517 @@
     <t>2013</t>
   </si>
   <si>
+    <t>BVT0</t>
+  </si>
+  <si>
     <t>15.0</t>
   </si>
   <si>
     <t>1912.0</t>
   </si>
   <si>
+    <t>BVT1</t>
+  </si>
+  <si>
+    <t>BVT2</t>
+  </si>
+  <si>
+    <t>BVT3</t>
+  </si>
+  <si>
+    <t>BVT4</t>
+  </si>
+  <si>
+    <t>BVT5</t>
+  </si>
+  <si>
     <t>1.0</t>
   </si>
   <si>
+    <t>BVT6</t>
+  </si>
+  <si>
     <t>2.0</t>
   </si>
   <si>
+    <t>BVT7</t>
+  </si>
+  <si>
     <t>30.0</t>
   </si>
   <si>
+    <t>BVT8</t>
+  </si>
+  <si>
     <t>31.0</t>
   </si>
   <si>
+    <t>BVT9</t>
+  </si>
+  <si>
     <t>1812.0</t>
   </si>
   <si>
+    <t>BVT10</t>
+  </si>
+  <si>
     <t>1813.0</t>
   </si>
   <si>
+    <t>BVT11</t>
+  </si>
+  <si>
     <t>2011.0</t>
   </si>
   <si>
+    <t>BVT12</t>
+  </si>
+  <si>
     <t>2012.0</t>
   </si>
   <si>
+    <t>RT0</t>
+  </si>
+  <si>
+    <t>RT1</t>
+  </si>
+  <si>
+    <t>RT2</t>
+  </si>
+  <si>
+    <t>RT3</t>
+  </si>
+  <si>
+    <t>RT4</t>
+  </si>
+  <si>
+    <t>RT5</t>
+  </si>
+  <si>
+    <t>RT6</t>
+  </si>
+  <si>
+    <t>RT7</t>
+  </si>
+  <si>
+    <t>RT8</t>
+  </si>
+  <si>
+    <t>RT9</t>
+  </si>
+  <si>
+    <t>RT10</t>
+  </si>
+  <si>
+    <t>RT11</t>
+  </si>
+  <si>
+    <t>RT12</t>
+  </si>
+  <si>
+    <t>RT13</t>
+  </si>
+  <si>
     <t>12.0</t>
   </si>
   <si>
+    <t>RT14</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
+    <t>RT15</t>
+  </si>
+  <si>
     <t>32.0</t>
   </si>
   <si>
+    <t>RT16</t>
+  </si>
+  <si>
     <t>1811.0</t>
   </si>
   <si>
+    <t>RT17</t>
+  </si>
+  <si>
     <t>2013.0</t>
+  </si>
+  <si>
+    <t>WCT0</t>
+  </si>
+  <si>
+    <t>WCT1</t>
+  </si>
+  <si>
+    <t>WCT2</t>
+  </si>
+  <si>
+    <t>WCT3</t>
+  </si>
+  <si>
+    <t>WCT4</t>
+  </si>
+  <si>
+    <t>WCT5</t>
+  </si>
+  <si>
+    <t>WCT6</t>
+  </si>
+  <si>
+    <t>WCT7</t>
+  </si>
+  <si>
+    <t>WCT8</t>
+  </si>
+  <si>
+    <t>WCT9</t>
+  </si>
+  <si>
+    <t>WCT10</t>
+  </si>
+  <si>
+    <t>WCT11</t>
+  </si>
+  <si>
+    <t>WCT12</t>
+  </si>
+  <si>
+    <t>WCT13</t>
+  </si>
+  <si>
+    <t>WCT14</t>
+  </si>
+  <si>
+    <t>WCT15</t>
+  </si>
+  <si>
+    <t>WCT16</t>
+  </si>
+  <si>
+    <t>WCT17</t>
+  </si>
+  <si>
+    <t>WCT18</t>
+  </si>
+  <si>
+    <t>WCT19</t>
+  </si>
+  <si>
+    <t>WCT20</t>
+  </si>
+  <si>
+    <t>WCT21</t>
+  </si>
+  <si>
+    <t>WCT22</t>
+  </si>
+  <si>
+    <t>WCT23</t>
+  </si>
+  <si>
+    <t>WCT24</t>
+  </si>
+  <si>
+    <t>WCT25</t>
+  </si>
+  <si>
+    <t>WCT26</t>
+  </si>
+  <si>
+    <t>WCT27</t>
+  </si>
+  <si>
+    <t>WCT28</t>
+  </si>
+  <si>
+    <t>WCT29</t>
+  </si>
+  <si>
+    <t>WCT30</t>
+  </si>
+  <si>
+    <t>WCT31</t>
+  </si>
+  <si>
+    <t>WCT32</t>
+  </si>
+  <si>
+    <t>WCT33</t>
+  </si>
+  <si>
+    <t>WCT34</t>
+  </si>
+  <si>
+    <t>WCT35</t>
+  </si>
+  <si>
+    <t>WCT36</t>
+  </si>
+  <si>
+    <t>WCT37</t>
+  </si>
+  <si>
+    <t>WCT38</t>
+  </si>
+  <si>
+    <t>WCT39</t>
+  </si>
+  <si>
+    <t>WCT40</t>
+  </si>
+  <si>
+    <t>WCT41</t>
+  </si>
+  <si>
+    <t>WCT42</t>
+  </si>
+  <si>
+    <t>WCT43</t>
+  </si>
+  <si>
+    <t>WCT44</t>
+  </si>
+  <si>
+    <t>WCT45</t>
+  </si>
+  <si>
+    <t>WCT46</t>
+  </si>
+  <si>
+    <t>WCT47</t>
+  </si>
+  <si>
+    <t>WCT48</t>
+  </si>
+  <si>
+    <t>WCT49</t>
+  </si>
+  <si>
+    <t>WCT50</t>
+  </si>
+  <si>
+    <t>WCT51</t>
+  </si>
+  <si>
+    <t>WCT52</t>
+  </si>
+  <si>
+    <t>WCT53</t>
+  </si>
+  <si>
+    <t>WCT54</t>
+  </si>
+  <si>
+    <t>WCT55</t>
+  </si>
+  <si>
+    <t>WCT56</t>
+  </si>
+  <si>
+    <t>WCT57</t>
+  </si>
+  <si>
+    <t>WCT58</t>
+  </si>
+  <si>
+    <t>WCT59</t>
+  </si>
+  <si>
+    <t>WCT60</t>
+  </si>
+  <si>
+    <t>WCT61</t>
+  </si>
+  <si>
+    <t>WCT62</t>
+  </si>
+  <si>
+    <t>WCT63</t>
+  </si>
+  <si>
+    <t>WCT64</t>
+  </si>
+  <si>
+    <t>WCT65</t>
+  </si>
+  <si>
+    <t>WCT66</t>
+  </si>
+  <si>
+    <t>WCT67</t>
+  </si>
+  <si>
+    <t>WCT68</t>
+  </si>
+  <si>
+    <t>WCT69</t>
+  </si>
+  <si>
+    <t>WCT70</t>
+  </si>
+  <si>
+    <t>WCT71</t>
+  </si>
+  <si>
+    <t>WCT72</t>
+  </si>
+  <si>
+    <t>WCT73</t>
+  </si>
+  <si>
+    <t>WCT74</t>
+  </si>
+  <si>
+    <t>WCT75</t>
+  </si>
+  <si>
+    <t>WCT76</t>
+  </si>
+  <si>
+    <t>WCT77</t>
+  </si>
+  <si>
+    <t>WCT78</t>
+  </si>
+  <si>
+    <t>WCT79</t>
+  </si>
+  <si>
+    <t>WCT80</t>
+  </si>
+  <si>
+    <t>WCT81</t>
+  </si>
+  <si>
+    <t>WCT82</t>
+  </si>
+  <si>
+    <t>WCT83</t>
+  </si>
+  <si>
+    <t>WCT84</t>
+  </si>
+  <si>
+    <t>WCT85</t>
+  </si>
+  <si>
+    <t>WCT86</t>
+  </si>
+  <si>
+    <t>WCT87</t>
+  </si>
+  <si>
+    <t>WCT88</t>
+  </si>
+  <si>
+    <t>WCT89</t>
+  </si>
+  <si>
+    <t>WCT90</t>
+  </si>
+  <si>
+    <t>WCT91</t>
+  </si>
+  <si>
+    <t>WCT92</t>
+  </si>
+  <si>
+    <t>WCT93</t>
+  </si>
+  <si>
+    <t>WCT94</t>
+  </si>
+  <si>
+    <t>WCT95</t>
+  </si>
+  <si>
+    <t>WCT96</t>
+  </si>
+  <si>
+    <t>WCT97</t>
+  </si>
+  <si>
+    <t>WCT98</t>
+  </si>
+  <si>
+    <t>WCT99</t>
+  </si>
+  <si>
+    <t>WCT100</t>
+  </si>
+  <si>
+    <t>WCT101</t>
+  </si>
+  <si>
+    <t>WCT102</t>
+  </si>
+  <si>
+    <t>WCT103</t>
+  </si>
+  <si>
+    <t>WCT104</t>
+  </si>
+  <si>
+    <t>WCT105</t>
+  </si>
+  <si>
+    <t>WCT106</t>
+  </si>
+  <si>
+    <t>WCT107</t>
+  </si>
+  <si>
+    <t>WCT108</t>
+  </si>
+  <si>
+    <t>WCT109</t>
+  </si>
+  <si>
+    <t>WCT110</t>
+  </si>
+  <si>
+    <t>WCT111</t>
+  </si>
+  <si>
+    <t>WCT112</t>
+  </si>
+  <si>
+    <t>WCT113</t>
+  </si>
+  <si>
+    <t>WCT114</t>
+  </si>
+  <si>
+    <t>WCT115</t>
+  </si>
+  <si>
+    <t>WCT116</t>
+  </si>
+  <si>
+    <t>WCT117</t>
+  </si>
+  <si>
+    <t>WCT118</t>
+  </si>
+  <si>
+    <t>WCT119</t>
+  </si>
+  <si>
+    <t>WCT120</t>
+  </si>
+  <si>
+    <t>WCT121</t>
+  </si>
+  <si>
+    <t>WCT122</t>
+  </si>
+  <si>
+    <t>WCT123</t>
+  </si>
+  <si>
+    <t>WCT124</t>
   </si>
 </sst>
 </file>
@@ -1554,146 +2022,185 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
       <c r="B4" t="s">
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
       <c r="B5" t="s">
         <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
       <c r="B7" t="s">
         <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1793,201 +2300,255 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
       <c r="B4" t="s">
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
       <c r="B5" t="s">
         <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
       <c r="B7" t="s">
         <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
         <v>94</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2087,1378 +2648,1753 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
       <c r="B4" t="s">
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
       <c r="B5" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
       <c r="B6" t="s">
         <v>73</v>
       </c>
       <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
         <v>94</v>
       </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="7">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
       <c r="B8" t="s">
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
       <c r="B9" t="s">
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
       <c r="B10" t="s">
         <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
       <c r="B11" t="s">
         <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
       <c r="B12" t="s">
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
       <c r="B13" t="s">
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
       <c r="B14" t="s">
         <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
       <c r="B15" t="s">
         <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
       <c r="B16" t="s">
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
       <c r="B17" t="s">
         <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
       <c r="B18" t="s">
         <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
       <c r="B19" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
       <c r="B20" t="s">
         <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
       <c r="B21" t="s">
         <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
       <c r="B22" t="s">
         <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
       <c r="B23" t="s">
         <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
       <c r="B24" t="s">
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
       <c r="B25" t="s">
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
       <c r="B26" t="s">
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
       <c r="B27" t="s">
         <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
       <c r="B28" t="s">
         <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
       <c r="B29" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
       <c r="B30" t="s">
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
       <c r="B31" t="s">
         <v>74</v>
       </c>
       <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
         <v>94</v>
       </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
       <c r="B32" t="s">
         <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
       <c r="B33" t="s">
         <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
       <c r="B34" t="s">
         <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>169</v>
+      </c>
       <c r="B35" t="s">
         <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
       <c r="B36" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>171</v>
+      </c>
       <c r="B37" t="s">
         <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
       <c r="B38" t="s">
         <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
       <c r="B39" t="s">
         <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
       <c r="B40" t="s">
         <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
       <c r="B41" t="s">
         <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="s">
+        <v>176</v>
+      </c>
       <c r="B42" t="s">
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
       <c r="B43" t="s">
         <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
       <c r="B44" t="s">
         <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
       <c r="B45" t="s">
         <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
       <c r="B46" t="s">
         <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
       <c r="B47" t="s">
         <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
       <c r="B48" t="s">
         <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
       <c r="B49" t="s">
         <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
       <c r="B50" t="s">
         <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
       <c r="B52" t="s">
         <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
       <c r="B53" t="s">
         <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
       <c r="B54" t="s">
         <v>75</v>
       </c>
       <c r="C54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" t="s">
         <v>94</v>
       </c>
-      <c r="D54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" t="s">
         <v>94</v>
       </c>
-      <c r="D55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
         <v>94</v>
       </c>
-      <c r="D56" t="s">
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" t="s">
         <v>94</v>
       </c>
-      <c r="D57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
         <v>94</v>
       </c>
-      <c r="D58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" t="s">
-        <v>96</v>
-      </c>
-      <c r="D73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="77">
+      <c r="A77" t="s">
+        <v>211</v>
+      </c>
       <c r="B77" t="s">
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="s">
+        <v>212</v>
+      </c>
       <c r="B78" t="s">
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="s">
+        <v>213</v>
+      </c>
       <c r="B79" t="s">
         <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="s">
+        <v>214</v>
+      </c>
       <c r="B80" t="s">
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D80" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="s">
+        <v>215</v>
+      </c>
       <c r="B81" t="s">
         <v>76</v>
       </c>
       <c r="C81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" t="s">
         <v>94</v>
       </c>
-      <c r="D81" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="82">
+      <c r="A82" t="s">
+        <v>216</v>
+      </c>
       <c r="B82" t="s">
         <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="s">
+        <v>217</v>
+      </c>
       <c r="B83" t="s">
         <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="s">
+        <v>218</v>
+      </c>
       <c r="B84" t="s">
         <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="s">
+        <v>219</v>
+      </c>
       <c r="B85" t="s">
         <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D85" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="s">
+        <v>220</v>
+      </c>
       <c r="B86" t="s">
         <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="s">
+        <v>221</v>
+      </c>
       <c r="B87" t="s">
         <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="s">
+        <v>222</v>
+      </c>
       <c r="B88" t="s">
         <v>76</v>
       </c>
       <c r="C88" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D88" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="s">
+        <v>223</v>
+      </c>
       <c r="B89" t="s">
         <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="s">
+        <v>224</v>
+      </c>
       <c r="B90" t="s">
         <v>76</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="s">
+        <v>225</v>
+      </c>
       <c r="B91" t="s">
         <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D91" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="s">
+        <v>226</v>
+      </c>
       <c r="B92" t="s">
         <v>76</v>
       </c>
       <c r="C92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="s">
+        <v>227</v>
+      </c>
       <c r="B93" t="s">
         <v>76</v>
       </c>
       <c r="C93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D93" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="s">
+        <v>228</v>
+      </c>
       <c r="B94" t="s">
         <v>76</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="s">
+        <v>229</v>
+      </c>
       <c r="B95" t="s">
         <v>76</v>
       </c>
       <c r="C95" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="s">
+        <v>230</v>
+      </c>
       <c r="B96" t="s">
         <v>76</v>
       </c>
       <c r="C96" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D96" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="s">
+        <v>231</v>
+      </c>
       <c r="B97" t="s">
         <v>76</v>
       </c>
       <c r="C97" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="s">
+        <v>232</v>
+      </c>
       <c r="B98" t="s">
         <v>76</v>
       </c>
       <c r="C98" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D98" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="s">
+        <v>233</v>
+      </c>
       <c r="B99" t="s">
         <v>76</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D99" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="s">
+        <v>234</v>
+      </c>
       <c r="B100" t="s">
         <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D100" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="s">
+        <v>235</v>
+      </c>
       <c r="B101" t="s">
         <v>76</v>
       </c>
       <c r="C101" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="s">
+        <v>236</v>
+      </c>
       <c r="B102" t="s">
         <v>76</v>
       </c>
       <c r="C102" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D102" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="s">
+        <v>237</v>
+      </c>
       <c r="B103" t="s">
         <v>76</v>
       </c>
       <c r="C103" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="s">
+        <v>238</v>
+      </c>
       <c r="B104" t="s">
         <v>77</v>
       </c>
       <c r="C104" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D104" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="s">
+        <v>239</v>
+      </c>
       <c r="B105" t="s">
         <v>77</v>
       </c>
       <c r="C105" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D105" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="s">
+        <v>240</v>
+      </c>
       <c r="B106" t="s">
         <v>77</v>
       </c>
       <c r="C106" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" t="s">
         <v>94</v>
       </c>
-      <c r="D106" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="107">
+      <c r="A107" t="s">
+        <v>241</v>
+      </c>
       <c r="B107" t="s">
         <v>77</v>
       </c>
       <c r="C107" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D107" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="s">
+        <v>242</v>
+      </c>
       <c r="B108" t="s">
         <v>77</v>
       </c>
       <c r="C108" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="s">
+        <v>243</v>
+      </c>
       <c r="B109" t="s">
         <v>77</v>
       </c>
       <c r="C109" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D109" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="s">
+        <v>244</v>
+      </c>
       <c r="B110" t="s">
         <v>77</v>
       </c>
       <c r="C110" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D110" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="s">
+        <v>245</v>
+      </c>
       <c r="B111" t="s">
         <v>77</v>
       </c>
       <c r="C111" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D111" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="s">
+        <v>246</v>
+      </c>
       <c r="B112" t="s">
         <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D112" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="s">
+        <v>247</v>
+      </c>
       <c r="B113" t="s">
         <v>77</v>
       </c>
       <c r="C113" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D113" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="s">
+        <v>248</v>
+      </c>
       <c r="B114" t="s">
         <v>77</v>
       </c>
       <c r="C114" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D114" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="s">
+        <v>249</v>
+      </c>
       <c r="B115" t="s">
         <v>77</v>
       </c>
       <c r="C115" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D115" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="s">
+        <v>250</v>
+      </c>
       <c r="B116" t="s">
         <v>77</v>
       </c>
       <c r="C116" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D116" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="s">
+        <v>251</v>
+      </c>
       <c r="B117" t="s">
         <v>77</v>
       </c>
       <c r="C117" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D117" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="s">
+        <v>252</v>
+      </c>
       <c r="B118" t="s">
         <v>77</v>
       </c>
       <c r="C118" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D118" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="s">
+        <v>253</v>
+      </c>
       <c r="B119" t="s">
         <v>77</v>
       </c>
       <c r="C119" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D119" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="s">
+        <v>254</v>
+      </c>
       <c r="B120" t="s">
         <v>77</v>
       </c>
       <c r="C120" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D120" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="s">
+        <v>255</v>
+      </c>
       <c r="B121" t="s">
         <v>77</v>
       </c>
       <c r="C121" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D121" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="s">
+        <v>256</v>
+      </c>
       <c r="B122" t="s">
         <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D122" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="s">
+        <v>257</v>
+      </c>
       <c r="B123" t="s">
         <v>77</v>
       </c>
       <c r="C123" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D123" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="s">
+        <v>258</v>
+      </c>
       <c r="B124" t="s">
         <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D124" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="s">
+        <v>259</v>
+      </c>
       <c r="B125" t="s">
         <v>77</v>
       </c>
       <c r="C125" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D125" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="s">
+        <v>260</v>
+      </c>
       <c r="B126" t="s">
         <v>77</v>
       </c>
       <c r="C126" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D126" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="s">
+        <v>261</v>
+      </c>
       <c r="B127" t="s">
         <v>77</v>
       </c>
       <c r="C127" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D127" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="s">
+        <v>262</v>
+      </c>
       <c r="B128" t="s">
         <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D128" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelin Şenkula\Documents\GitHub\SoftwareTesting\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emre\Documents\GitHub\SoftwareTesting\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="8" firstSheet="4" tabRatio="850" windowHeight="2610" windowWidth="12840" xWindow="0" yWindow="0"/>
+    <workbookView tabRatio="850" windowHeight="2610" windowWidth="12840" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" r:id="rId1" sheetId="1"/>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="302">
   <si>
     <t>R1</t>
   </si>
   <si>
-    <t>if all sides are different, then triangle is Scalene</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -112,18 +109,9 @@
     <t>max+</t>
   </si>
   <si>
-    <t>if two sides are equal and one side is different, then triangle is Isosceles</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
-    <t>if  all sides are equal, then triangle is Equilateral</t>
-  </si>
-  <si>
-    <t>if one side is larger than the sum of the other sides, then sides do not form a triangle</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -283,7 +271,22 @@
     <t>00</t>
   </si>
   <si>
-    <t>valid_date</t>
+    <t>Traditional Equivalence</t>
+  </si>
+  <si>
+    <t>Worst Case Test Cases</t>
+  </si>
+  <si>
+    <t>Weak Eqivalance Test Cases</t>
+  </si>
+  <si>
+    <t>Strong Equivalance Test Cases</t>
+  </si>
+  <si>
+    <t>Robustness Test Cases</t>
+  </si>
+  <si>
+    <t>next_date</t>
   </si>
   <si>
     <t>BVT1</t>
@@ -1475,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,41 +1490,29 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="77.7109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1534,9 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1564,14 +1553,14 @@
   <sheetData>
     <row customHeight="1" ht="15.75" r="1" spans="1:26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -1583,7 +1572,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
@@ -1591,7 +1580,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
@@ -1605,93 +1594,93 @@
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="V2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="X2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1701,10 +1690,10 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -1714,33 +1703,33 @@
         <v>12</v>
       </c>
       <c r="U3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="Z3" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1763,21 +1752,21 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="W4" s="6">
         <v>15</v>
@@ -1794,13 +1783,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1823,10 +1812,10 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T5" s="6">
         <v>1811</v>
@@ -1855,151 +1844,151 @@
     </row>
     <row ht="15.75" r="7" spans="1:26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" s="20"/>
     </row>
     <row ht="16.5" r="8" spans="1:26" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" s="20"/>
     </row>
     <row ht="15.75" r="9" spans="1:26" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row ht="45" r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row ht="30" r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2002,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,23 +2013,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +2041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2070,254 +2061,254 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2329,7 +2320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2347,310 +2340,310 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2662,11 +2655,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="23.140625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="27.85546875" collapsed="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="14.5703125" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="4.140625" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="4.85546875" collapsed="false"/>
@@ -2680,576 +2675,576 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>129</v>
-      </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3261,11 +3256,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="23.140625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="26.140625" collapsed="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="14.5703125" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="4.140625" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="4.85546875" collapsed="false"/>
@@ -3279,128 +3276,128 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3412,11 +3409,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="23.140625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="20.85546875" collapsed="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="14.5703125" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="4.140625" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="4.85546875" collapsed="false"/>
@@ -3430,1822 +3429,1822 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C90" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C91" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D91" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C93" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C98" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C99" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C100" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D101" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C102" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B104" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D104" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B105" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D105" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B106" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C106" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D106" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B107" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C107" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D107" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B108" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C108" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B109" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C109" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D109" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B110" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C110" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D110" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B111" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D111" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B112" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C112" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D112" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B113" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D113" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B114" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C114" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D114" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B115" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C115" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D115" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B116" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C116" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D116" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B117" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C117" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D117" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B118" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C118" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D118" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B119" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C119" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D119" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B120" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C120" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D120" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B121" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C121" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D121" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B122" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C122" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D122" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C123" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D123" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B124" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C124" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D124" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B125" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C125" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D125" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B126" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C126" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D126" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B127" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C127" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D127" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B128" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C128" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D128" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5257,11 +5256,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="23.140625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="22.140625" collapsed="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="14.5703125" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="4.140625" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="4.85546875" collapsed="false"/>
@@ -5275,212 +5276,212 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="300">
   <si>
     <t>R1</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>OV1</t>
-  </si>
-  <si>
-    <t>OV2</t>
-  </si>
-  <si>
-    <t>error_message</t>
   </si>
   <si>
     <t>Expected Output (Output Variables)</t>
@@ -1507,12 +1501,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1557,10 +1551,10 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -1572,7 +1566,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
@@ -1580,7 +1574,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
@@ -1594,73 +1588,73 @@
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="T2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="X2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1668,19 +1662,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1690,10 +1684,10 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -1703,22 +1697,22 @@
         <v>12</v>
       </c>
       <c r="U3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="Z3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1726,10 +1720,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1752,21 +1746,21 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W4" s="6">
         <v>15</v>
@@ -1786,10 +1780,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1812,10 +1806,10 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T5" s="6">
         <v>1811</v>
@@ -1844,151 +1838,151 @@
     </row>
     <row ht="15.75" r="7" spans="1:26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="20"/>
     </row>
     <row ht="16.5" r="8" spans="1:26" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="20"/>
     </row>
     <row ht="15.75" r="9" spans="1:26" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row ht="45" r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row ht="30" r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1999,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,15 +2015,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2039,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,16 +2038,14 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="4.140625" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="4.85546875" collapsed="false"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="33.42578125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="34.0" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="13" width="10.7109375" collapsed="false"/>
-    <col min="10" max="16384" style="13" width="9.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="34.0" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="10.7109375" collapsed="false"/>
+    <col min="8" max="16384" style="13" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>2</v>
@@ -2069,18 +2053,16 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
@@ -2094,221 +2076,209 @@
         <v>8</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2318,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,16 +2301,14 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="4.140625" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="4.85546875" collapsed="false"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="33.42578125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="34.0" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="13" width="10.7109375" collapsed="false"/>
-    <col min="10" max="16384" style="13" width="9.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="34.0" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="10.7109375" collapsed="false"/>
+    <col min="8" max="16384" style="13" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>2</v>
@@ -2348,18 +2316,16 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
@@ -2373,277 +2339,265 @@
         <v>8</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2653,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2666,16 +2620,14 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="4.140625" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="4.85546875" collapsed="false"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="33.42578125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="34.0" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="13" width="10.7109375" collapsed="false"/>
-    <col min="10" max="16384" style="13" width="9.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="34.0" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="10.7109375" collapsed="false"/>
+    <col min="8" max="16384" style="13" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>2</v>
@@ -2683,18 +2635,16 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
@@ -2708,543 +2658,531 @@
         <v>8</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3254,10 +3192,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3267,16 +3205,14 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="4.140625" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="4.85546875" collapsed="false"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="33.42578125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="34.0" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="13" width="10.7109375" collapsed="false"/>
-    <col min="10" max="16384" style="13" width="9.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="34.0" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="10.7109375" collapsed="false"/>
+    <col min="8" max="16384" style="13" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>2</v>
@@ -3284,18 +3220,16 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
@@ -3309,95 +3243,83 @@
         <v>8</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3407,10 +3329,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,16 +3342,14 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="4.140625" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="4.85546875" collapsed="false"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="33.42578125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="34.0" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="13" width="10.7109375" collapsed="false"/>
-    <col min="10" max="16384" style="13" width="9.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="34.0" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="10.7109375" collapsed="false"/>
+    <col min="8" max="16384" style="13" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>2</v>
@@ -3437,18 +3357,16 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
@@ -3462,1789 +3380,1777 @@
         <v>8</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
         <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
         <v>97</v>
-      </c>
-      <c r="D49" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" t="s">
         <v>97</v>
-      </c>
-      <c r="D74" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C81" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D86" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C87" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B88" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D89" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D90" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D91" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C98" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B99" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" t="s">
         <v>97</v>
-      </c>
-      <c r="D99" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B100" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D101" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C103" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C105" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B106" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C106" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D106" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C107" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C108" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B109" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C109" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C110" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D110" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C111" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D111" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B112" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C112" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D112" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C113" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D113" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B114" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C114" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D114" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B115" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C115" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D115" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B116" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C116" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D116" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B117" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C117" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D117" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B118" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C118" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D118" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B119" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C119" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D119" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B120" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C120" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D120" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B121" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C121" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D121" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C122" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D122" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B123" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C123" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D123" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B124" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" t="s">
         <v>97</v>
-      </c>
-      <c r="D124" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B125" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C125" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D125" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B126" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C126" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D126" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B127" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C127" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D127" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B128" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C128" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D128" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5254,10 +5160,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5267,16 +5173,14 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="4.140625" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="4.85546875" collapsed="false"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="33.42578125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="34.0" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="13" width="10.7109375" collapsed="false"/>
-    <col min="10" max="16384" style="13" width="9.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="34.0" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="10.7109375" collapsed="false"/>
+    <col min="8" max="16384" style="13" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>2</v>
@@ -5284,18 +5188,16 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
@@ -5309,179 +5211,167 @@
         <v>8</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -2025,7 +2025,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -2112,6 +2112,8 @@
       <c r="D4" t="s">
         <v>85</v>
       </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2126,6 +2128,8 @@
       <c r="D5" t="s">
         <v>85</v>
       </c>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2140,6 +2144,8 @@
       <c r="D6" t="s">
         <v>85</v>
       </c>
+      <c r="E6"/>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2154,6 +2160,8 @@
       <c r="D7" t="s">
         <v>85</v>
       </c>
+      <c r="E7"/>
+      <c r="F7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2168,6 +2176,8 @@
       <c r="D8" t="s">
         <v>85</v>
       </c>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2182,6 +2192,8 @@
       <c r="D9" t="s">
         <v>85</v>
       </c>
+      <c r="E9"/>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2196,6 +2208,8 @@
       <c r="D10" t="s">
         <v>85</v>
       </c>
+      <c r="E10"/>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2210,6 +2224,8 @@
       <c r="D11" t="s">
         <v>85</v>
       </c>
+      <c r="E11"/>
+      <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2224,6 +2240,8 @@
       <c r="D12" t="s">
         <v>85</v>
       </c>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2238,6 +2256,8 @@
       <c r="D13" t="s">
         <v>97</v>
       </c>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2252,6 +2272,8 @@
       <c r="D14" t="s">
         <v>99</v>
       </c>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2266,6 +2288,8 @@
       <c r="D15" t="s">
         <v>101</v>
       </c>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2280,6 +2304,11 @@
       <c r="D16" t="s">
         <v>103</v>
       </c>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2288,7 +2317,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
@@ -2375,6 +2404,8 @@
       <c r="D4" t="s">
         <v>85</v>
       </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2389,6 +2420,8 @@
       <c r="D5" t="s">
         <v>85</v>
       </c>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2403,6 +2436,8 @@
       <c r="D6" t="s">
         <v>85</v>
       </c>
+      <c r="E6"/>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2417,6 +2452,8 @@
       <c r="D7" t="s">
         <v>85</v>
       </c>
+      <c r="E7"/>
+      <c r="F7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2431,6 +2468,8 @@
       <c r="D8" t="s">
         <v>85</v>
       </c>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2445,6 +2484,8 @@
       <c r="D9" t="s">
         <v>85</v>
       </c>
+      <c r="E9"/>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2459,6 +2500,8 @@
       <c r="D10" t="s">
         <v>85</v>
       </c>
+      <c r="E10"/>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2473,6 +2516,8 @@
       <c r="D11" t="s">
         <v>85</v>
       </c>
+      <c r="E11"/>
+      <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2487,6 +2532,8 @@
       <c r="D12" t="s">
         <v>85</v>
       </c>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2501,6 +2548,8 @@
       <c r="D13" t="s">
         <v>97</v>
       </c>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2515,6 +2564,8 @@
       <c r="D14" t="s">
         <v>99</v>
       </c>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2529,6 +2580,8 @@
       <c r="D15" t="s">
         <v>101</v>
       </c>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2543,6 +2596,8 @@
       <c r="D16" t="s">
         <v>103</v>
       </c>
+      <c r="E16"/>
+      <c r="F16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2557,6 +2612,8 @@
       <c r="D17" t="s">
         <v>85</v>
       </c>
+      <c r="E17"/>
+      <c r="F17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2571,6 +2628,8 @@
       <c r="D18" t="s">
         <v>85</v>
       </c>
+      <c r="E18"/>
+      <c r="F18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2585,6 +2644,8 @@
       <c r="D19" t="s">
         <v>74</v>
       </c>
+      <c r="E19"/>
+      <c r="F19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2599,6 +2660,11 @@
       <c r="D20" t="s">
         <v>75</v>
       </c>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2607,7 +2673,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
@@ -2694,6 +2760,8 @@
       <c r="D4" t="s">
         <v>122</v>
       </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2708,6 +2776,8 @@
       <c r="D5" t="s">
         <v>124</v>
       </c>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2722,6 +2792,8 @@
       <c r="D6" t="s">
         <v>126</v>
       </c>
+      <c r="E6"/>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2736,6 +2808,8 @@
       <c r="D7" t="s">
         <v>122</v>
       </c>
+      <c r="E7"/>
+      <c r="F7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2750,6 +2824,8 @@
       <c r="D8" t="s">
         <v>124</v>
       </c>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2764,6 +2840,8 @@
       <c r="D9" t="s">
         <v>126</v>
       </c>
+      <c r="E9"/>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2778,6 +2856,8 @@
       <c r="D10" t="s">
         <v>122</v>
       </c>
+      <c r="E10"/>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2792,6 +2872,8 @@
       <c r="D11" t="s">
         <v>124</v>
       </c>
+      <c r="E11"/>
+      <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2806,6 +2888,8 @@
       <c r="D12" t="s">
         <v>126</v>
       </c>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2820,6 +2904,8 @@
       <c r="D13" t="s">
         <v>122</v>
       </c>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2834,6 +2920,8 @@
       <c r="D14" t="s">
         <v>124</v>
       </c>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2848,6 +2936,8 @@
       <c r="D15" t="s">
         <v>126</v>
       </c>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2862,6 +2952,8 @@
       <c r="D16" t="s">
         <v>122</v>
       </c>
+      <c r="E16"/>
+      <c r="F16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2876,6 +2968,8 @@
       <c r="D17" t="s">
         <v>124</v>
       </c>
+      <c r="E17"/>
+      <c r="F17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2890,6 +2984,8 @@
       <c r="D18" t="s">
         <v>126</v>
       </c>
+      <c r="E18"/>
+      <c r="F18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2904,6 +3000,8 @@
       <c r="D19" t="s">
         <v>122</v>
       </c>
+      <c r="E19"/>
+      <c r="F19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2918,6 +3016,8 @@
       <c r="D20" t="s">
         <v>124</v>
       </c>
+      <c r="E20"/>
+      <c r="F20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -2932,6 +3032,8 @@
       <c r="D21" t="s">
         <v>126</v>
       </c>
+      <c r="E21"/>
+      <c r="F21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -2946,6 +3048,8 @@
       <c r="D22" t="s">
         <v>122</v>
       </c>
+      <c r="E22"/>
+      <c r="F22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2960,6 +3064,8 @@
       <c r="D23" t="s">
         <v>124</v>
       </c>
+      <c r="E23"/>
+      <c r="F23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2974,6 +3080,8 @@
       <c r="D24" t="s">
         <v>126</v>
       </c>
+      <c r="E24"/>
+      <c r="F24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2988,6 +3096,8 @@
       <c r="D25" t="s">
         <v>122</v>
       </c>
+      <c r="E25"/>
+      <c r="F25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -3002,6 +3112,8 @@
       <c r="D26" t="s">
         <v>124</v>
       </c>
+      <c r="E26"/>
+      <c r="F26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -3016,6 +3128,8 @@
       <c r="D27" t="s">
         <v>126</v>
       </c>
+      <c r="E27"/>
+      <c r="F27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -3030,6 +3144,8 @@
       <c r="D28" t="s">
         <v>122</v>
       </c>
+      <c r="E28"/>
+      <c r="F28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -3044,6 +3160,8 @@
       <c r="D29" t="s">
         <v>124</v>
       </c>
+      <c r="E29"/>
+      <c r="F29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -3058,6 +3176,8 @@
       <c r="D30" t="s">
         <v>126</v>
       </c>
+      <c r="E30"/>
+      <c r="F30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -3072,6 +3192,8 @@
       <c r="D31" t="s">
         <v>122</v>
       </c>
+      <c r="E31"/>
+      <c r="F31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -3086,6 +3208,8 @@
       <c r="D32" t="s">
         <v>124</v>
       </c>
+      <c r="E32"/>
+      <c r="F32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -3100,6 +3224,8 @@
       <c r="D33" t="s">
         <v>126</v>
       </c>
+      <c r="E33"/>
+      <c r="F33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -3114,6 +3240,8 @@
       <c r="D34" t="s">
         <v>122</v>
       </c>
+      <c r="E34"/>
+      <c r="F34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -3128,6 +3256,8 @@
       <c r="D35" t="s">
         <v>124</v>
       </c>
+      <c r="E35"/>
+      <c r="F35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -3142,6 +3272,8 @@
       <c r="D36" t="s">
         <v>126</v>
       </c>
+      <c r="E36"/>
+      <c r="F36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -3156,6 +3288,8 @@
       <c r="D37" t="s">
         <v>122</v>
       </c>
+      <c r="E37"/>
+      <c r="F37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -3170,6 +3304,8 @@
       <c r="D38" t="s">
         <v>124</v>
       </c>
+      <c r="E38"/>
+      <c r="F38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -3184,6 +3320,11 @@
       <c r="D39" t="s">
         <v>126</v>
       </c>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40">
+      <c r="A40"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3192,7 +3333,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
@@ -3279,6 +3420,8 @@
       <c r="D4" t="s">
         <v>122</v>
       </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3293,6 +3436,8 @@
       <c r="D5" t="s">
         <v>124</v>
       </c>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3307,6 +3452,8 @@
       <c r="D6" t="s">
         <v>126</v>
       </c>
+      <c r="E6"/>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3321,6 +3468,11 @@
       <c r="D7" t="s">
         <v>122</v>
       </c>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3329,7 +3481,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
@@ -3416,6 +3568,8 @@
       <c r="D4" t="s">
         <v>97</v>
       </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3430,6 +3584,8 @@
       <c r="D5" t="s">
         <v>99</v>
       </c>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3444,6 +3600,8 @@
       <c r="D6" t="s">
         <v>85</v>
       </c>
+      <c r="E6"/>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3458,6 +3616,8 @@
       <c r="D7" t="s">
         <v>101</v>
       </c>
+      <c r="E7"/>
+      <c r="F7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3472,6 +3632,8 @@
       <c r="D8" t="s">
         <v>103</v>
       </c>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3486,6 +3648,8 @@
       <c r="D9" t="s">
         <v>97</v>
       </c>
+      <c r="E9"/>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3500,6 +3664,8 @@
       <c r="D10" t="s">
         <v>99</v>
       </c>
+      <c r="E10"/>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3514,6 +3680,8 @@
       <c r="D11" t="s">
         <v>85</v>
       </c>
+      <c r="E11"/>
+      <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3528,6 +3696,8 @@
       <c r="D12" t="s">
         <v>101</v>
       </c>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3542,6 +3712,8 @@
       <c r="D13" t="s">
         <v>103</v>
       </c>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3556,6 +3728,8 @@
       <c r="D14" t="s">
         <v>97</v>
       </c>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3570,6 +3744,8 @@
       <c r="D15" t="s">
         <v>99</v>
       </c>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3584,6 +3760,8 @@
       <c r="D16" t="s">
         <v>85</v>
       </c>
+      <c r="E16"/>
+      <c r="F16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3598,6 +3776,8 @@
       <c r="D17" t="s">
         <v>101</v>
       </c>
+      <c r="E17"/>
+      <c r="F17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3612,6 +3792,8 @@
       <c r="D18" t="s">
         <v>103</v>
       </c>
+      <c r="E18"/>
+      <c r="F18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3626,6 +3808,8 @@
       <c r="D19" t="s">
         <v>97</v>
       </c>
+      <c r="E19"/>
+      <c r="F19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3640,6 +3824,8 @@
       <c r="D20" t="s">
         <v>99</v>
       </c>
+      <c r="E20"/>
+      <c r="F20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3654,6 +3840,8 @@
       <c r="D21" t="s">
         <v>85</v>
       </c>
+      <c r="E21"/>
+      <c r="F21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3668,6 +3856,8 @@
       <c r="D22" t="s">
         <v>101</v>
       </c>
+      <c r="E22"/>
+      <c r="F22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3682,6 +3872,8 @@
       <c r="D23" t="s">
         <v>103</v>
       </c>
+      <c r="E23"/>
+      <c r="F23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3696,6 +3888,8 @@
       <c r="D24" t="s">
         <v>97</v>
       </c>
+      <c r="E24"/>
+      <c r="F24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -3710,6 +3904,8 @@
       <c r="D25" t="s">
         <v>99</v>
       </c>
+      <c r="E25"/>
+      <c r="F25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -3724,6 +3920,8 @@
       <c r="D26" t="s">
         <v>85</v>
       </c>
+      <c r="E26"/>
+      <c r="F26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -3738,6 +3936,8 @@
       <c r="D27" t="s">
         <v>101</v>
       </c>
+      <c r="E27"/>
+      <c r="F27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -3752,6 +3952,8 @@
       <c r="D28" t="s">
         <v>103</v>
       </c>
+      <c r="E28"/>
+      <c r="F28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -3766,6 +3968,8 @@
       <c r="D29" t="s">
         <v>97</v>
       </c>
+      <c r="E29"/>
+      <c r="F29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -3780,6 +3984,8 @@
       <c r="D30" t="s">
         <v>99</v>
       </c>
+      <c r="E30"/>
+      <c r="F30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -3794,6 +4000,8 @@
       <c r="D31" t="s">
         <v>85</v>
       </c>
+      <c r="E31"/>
+      <c r="F31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -3808,6 +4016,8 @@
       <c r="D32" t="s">
         <v>101</v>
       </c>
+      <c r="E32"/>
+      <c r="F32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -3822,6 +4032,8 @@
       <c r="D33" t="s">
         <v>103</v>
       </c>
+      <c r="E33"/>
+      <c r="F33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -3836,6 +4048,8 @@
       <c r="D34" t="s">
         <v>97</v>
       </c>
+      <c r="E34"/>
+      <c r="F34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -3850,6 +4064,8 @@
       <c r="D35" t="s">
         <v>99</v>
       </c>
+      <c r="E35"/>
+      <c r="F35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -3864,6 +4080,8 @@
       <c r="D36" t="s">
         <v>85</v>
       </c>
+      <c r="E36"/>
+      <c r="F36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -3878,6 +4096,8 @@
       <c r="D37" t="s">
         <v>101</v>
       </c>
+      <c r="E37"/>
+      <c r="F37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -3892,6 +4112,8 @@
       <c r="D38" t="s">
         <v>103</v>
       </c>
+      <c r="E38"/>
+      <c r="F38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -3906,6 +4128,8 @@
       <c r="D39" t="s">
         <v>97</v>
       </c>
+      <c r="E39"/>
+      <c r="F39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -3920,6 +4144,8 @@
       <c r="D40" t="s">
         <v>99</v>
       </c>
+      <c r="E40"/>
+      <c r="F40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -3934,6 +4160,8 @@
       <c r="D41" t="s">
         <v>85</v>
       </c>
+      <c r="E41"/>
+      <c r="F41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -3948,6 +4176,8 @@
       <c r="D42" t="s">
         <v>101</v>
       </c>
+      <c r="E42"/>
+      <c r="F42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -3962,6 +4192,8 @@
       <c r="D43" t="s">
         <v>103</v>
       </c>
+      <c r="E43"/>
+      <c r="F43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -3976,6 +4208,8 @@
       <c r="D44" t="s">
         <v>97</v>
       </c>
+      <c r="E44"/>
+      <c r="F44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -3990,6 +4224,8 @@
       <c r="D45" t="s">
         <v>99</v>
       </c>
+      <c r="E45"/>
+      <c r="F45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -4004,6 +4240,8 @@
       <c r="D46" t="s">
         <v>85</v>
       </c>
+      <c r="E46"/>
+      <c r="F46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -4018,6 +4256,8 @@
       <c r="D47" t="s">
         <v>101</v>
       </c>
+      <c r="E47"/>
+      <c r="F47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -4032,6 +4272,8 @@
       <c r="D48" t="s">
         <v>103</v>
       </c>
+      <c r="E48"/>
+      <c r="F48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -4046,6 +4288,8 @@
       <c r="D49" t="s">
         <v>97</v>
       </c>
+      <c r="E49"/>
+      <c r="F49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -4060,6 +4304,8 @@
       <c r="D50" t="s">
         <v>99</v>
       </c>
+      <c r="E50"/>
+      <c r="F50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -4074,6 +4320,8 @@
       <c r="D51" t="s">
         <v>85</v>
       </c>
+      <c r="E51"/>
+      <c r="F51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -4088,6 +4336,8 @@
       <c r="D52" t="s">
         <v>101</v>
       </c>
+      <c r="E52"/>
+      <c r="F52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -4102,6 +4352,8 @@
       <c r="D53" t="s">
         <v>103</v>
       </c>
+      <c r="E53"/>
+      <c r="F53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -4116,6 +4368,8 @@
       <c r="D54" t="s">
         <v>97</v>
       </c>
+      <c r="E54"/>
+      <c r="F54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -4130,6 +4384,8 @@
       <c r="D55" t="s">
         <v>99</v>
       </c>
+      <c r="E55"/>
+      <c r="F55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -4144,6 +4400,8 @@
       <c r="D56" t="s">
         <v>85</v>
       </c>
+      <c r="E56"/>
+      <c r="F56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -4158,6 +4416,8 @@
       <c r="D57" t="s">
         <v>101</v>
       </c>
+      <c r="E57"/>
+      <c r="F57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -4172,6 +4432,8 @@
       <c r="D58" t="s">
         <v>103</v>
       </c>
+      <c r="E58"/>
+      <c r="F58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -4186,6 +4448,8 @@
       <c r="D59" t="s">
         <v>97</v>
       </c>
+      <c r="E59"/>
+      <c r="F59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -4200,6 +4464,8 @@
       <c r="D60" t="s">
         <v>99</v>
       </c>
+      <c r="E60"/>
+      <c r="F60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -4214,6 +4480,8 @@
       <c r="D61" t="s">
         <v>85</v>
       </c>
+      <c r="E61"/>
+      <c r="F61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -4228,6 +4496,8 @@
       <c r="D62" t="s">
         <v>101</v>
       </c>
+      <c r="E62"/>
+      <c r="F62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -4242,6 +4512,8 @@
       <c r="D63" t="s">
         <v>103</v>
       </c>
+      <c r="E63"/>
+      <c r="F63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -4256,6 +4528,8 @@
       <c r="D64" t="s">
         <v>97</v>
       </c>
+      <c r="E64"/>
+      <c r="F64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -4270,6 +4544,8 @@
       <c r="D65" t="s">
         <v>99</v>
       </c>
+      <c r="E65"/>
+      <c r="F65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -4284,6 +4560,8 @@
       <c r="D66" t="s">
         <v>85</v>
       </c>
+      <c r="E66"/>
+      <c r="F66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -4298,6 +4576,8 @@
       <c r="D67" t="s">
         <v>101</v>
       </c>
+      <c r="E67"/>
+      <c r="F67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -4312,6 +4592,8 @@
       <c r="D68" t="s">
         <v>103</v>
       </c>
+      <c r="E68"/>
+      <c r="F68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -4326,6 +4608,8 @@
       <c r="D69" t="s">
         <v>97</v>
       </c>
+      <c r="E69"/>
+      <c r="F69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -4340,6 +4624,8 @@
       <c r="D70" t="s">
         <v>99</v>
       </c>
+      <c r="E70"/>
+      <c r="F70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -4354,6 +4640,8 @@
       <c r="D71" t="s">
         <v>85</v>
       </c>
+      <c r="E71"/>
+      <c r="F71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -4368,6 +4656,8 @@
       <c r="D72" t="s">
         <v>101</v>
       </c>
+      <c r="E72"/>
+      <c r="F72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -4382,6 +4672,8 @@
       <c r="D73" t="s">
         <v>103</v>
       </c>
+      <c r="E73"/>
+      <c r="F73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -4396,6 +4688,8 @@
       <c r="D74" t="s">
         <v>97</v>
       </c>
+      <c r="E74"/>
+      <c r="F74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -4410,6 +4704,8 @@
       <c r="D75" t="s">
         <v>99</v>
       </c>
+      <c r="E75"/>
+      <c r="F75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -4424,6 +4720,8 @@
       <c r="D76" t="s">
         <v>85</v>
       </c>
+      <c r="E76"/>
+      <c r="F76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -4438,6 +4736,8 @@
       <c r="D77" t="s">
         <v>101</v>
       </c>
+      <c r="E77"/>
+      <c r="F77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -4452,6 +4752,8 @@
       <c r="D78" t="s">
         <v>103</v>
       </c>
+      <c r="E78"/>
+      <c r="F78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -4466,6 +4768,8 @@
       <c r="D79" t="s">
         <v>97</v>
       </c>
+      <c r="E79"/>
+      <c r="F79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -4480,6 +4784,8 @@
       <c r="D80" t="s">
         <v>99</v>
       </c>
+      <c r="E80"/>
+      <c r="F80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -4494,6 +4800,8 @@
       <c r="D81" t="s">
         <v>85</v>
       </c>
+      <c r="E81"/>
+      <c r="F81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -4508,6 +4816,8 @@
       <c r="D82" t="s">
         <v>101</v>
       </c>
+      <c r="E82"/>
+      <c r="F82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -4522,6 +4832,8 @@
       <c r="D83" t="s">
         <v>103</v>
       </c>
+      <c r="E83"/>
+      <c r="F83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -4536,6 +4848,8 @@
       <c r="D84" t="s">
         <v>97</v>
       </c>
+      <c r="E84"/>
+      <c r="F84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -4550,6 +4864,8 @@
       <c r="D85" t="s">
         <v>99</v>
       </c>
+      <c r="E85"/>
+      <c r="F85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -4564,6 +4880,8 @@
       <c r="D86" t="s">
         <v>85</v>
       </c>
+      <c r="E86"/>
+      <c r="F86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -4578,6 +4896,8 @@
       <c r="D87" t="s">
         <v>101</v>
       </c>
+      <c r="E87"/>
+      <c r="F87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -4592,6 +4912,8 @@
       <c r="D88" t="s">
         <v>103</v>
       </c>
+      <c r="E88"/>
+      <c r="F88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -4606,6 +4928,8 @@
       <c r="D89" t="s">
         <v>97</v>
       </c>
+      <c r="E89"/>
+      <c r="F89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -4620,6 +4944,8 @@
       <c r="D90" t="s">
         <v>99</v>
       </c>
+      <c r="E90"/>
+      <c r="F90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -4634,6 +4960,8 @@
       <c r="D91" t="s">
         <v>85</v>
       </c>
+      <c r="E91"/>
+      <c r="F91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -4648,6 +4976,8 @@
       <c r="D92" t="s">
         <v>101</v>
       </c>
+      <c r="E92"/>
+      <c r="F92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -4662,6 +4992,8 @@
       <c r="D93" t="s">
         <v>103</v>
       </c>
+      <c r="E93"/>
+      <c r="F93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -4676,6 +5008,8 @@
       <c r="D94" t="s">
         <v>97</v>
       </c>
+      <c r="E94"/>
+      <c r="F94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -4690,6 +5024,8 @@
       <c r="D95" t="s">
         <v>99</v>
       </c>
+      <c r="E95"/>
+      <c r="F95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -4704,6 +5040,8 @@
       <c r="D96" t="s">
         <v>85</v>
       </c>
+      <c r="E96"/>
+      <c r="F96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -4718,6 +5056,8 @@
       <c r="D97" t="s">
         <v>101</v>
       </c>
+      <c r="E97"/>
+      <c r="F97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -4732,6 +5072,8 @@
       <c r="D98" t="s">
         <v>103</v>
       </c>
+      <c r="E98"/>
+      <c r="F98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -4746,6 +5088,8 @@
       <c r="D99" t="s">
         <v>97</v>
       </c>
+      <c r="E99"/>
+      <c r="F99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -4760,6 +5104,8 @@
       <c r="D100" t="s">
         <v>99</v>
       </c>
+      <c r="E100"/>
+      <c r="F100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -4774,6 +5120,8 @@
       <c r="D101" t="s">
         <v>85</v>
       </c>
+      <c r="E101"/>
+      <c r="F101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -4788,6 +5136,8 @@
       <c r="D102" t="s">
         <v>101</v>
       </c>
+      <c r="E102"/>
+      <c r="F102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -4802,6 +5152,8 @@
       <c r="D103" t="s">
         <v>103</v>
       </c>
+      <c r="E103"/>
+      <c r="F103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -4816,6 +5168,8 @@
       <c r="D104" t="s">
         <v>97</v>
       </c>
+      <c r="E104"/>
+      <c r="F104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -4830,6 +5184,8 @@
       <c r="D105" t="s">
         <v>99</v>
       </c>
+      <c r="E105"/>
+      <c r="F105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -4844,6 +5200,8 @@
       <c r="D106" t="s">
         <v>85</v>
       </c>
+      <c r="E106"/>
+      <c r="F106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -4858,6 +5216,8 @@
       <c r="D107" t="s">
         <v>101</v>
       </c>
+      <c r="E107"/>
+      <c r="F107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -4872,6 +5232,8 @@
       <c r="D108" t="s">
         <v>103</v>
       </c>
+      <c r="E108"/>
+      <c r="F108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -4886,6 +5248,8 @@
       <c r="D109" t="s">
         <v>97</v>
       </c>
+      <c r="E109"/>
+      <c r="F109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -4900,6 +5264,8 @@
       <c r="D110" t="s">
         <v>99</v>
       </c>
+      <c r="E110"/>
+      <c r="F110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
@@ -4914,6 +5280,8 @@
       <c r="D111" t="s">
         <v>85</v>
       </c>
+      <c r="E111"/>
+      <c r="F111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -4928,6 +5296,8 @@
       <c r="D112" t="s">
         <v>101</v>
       </c>
+      <c r="E112"/>
+      <c r="F112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -4942,6 +5312,8 @@
       <c r="D113" t="s">
         <v>103</v>
       </c>
+      <c r="E113"/>
+      <c r="F113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -4956,6 +5328,8 @@
       <c r="D114" t="s">
         <v>97</v>
       </c>
+      <c r="E114"/>
+      <c r="F114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -4970,6 +5344,8 @@
       <c r="D115" t="s">
         <v>99</v>
       </c>
+      <c r="E115"/>
+      <c r="F115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -4984,6 +5360,8 @@
       <c r="D116" t="s">
         <v>85</v>
       </c>
+      <c r="E116"/>
+      <c r="F116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -4998,6 +5376,8 @@
       <c r="D117" t="s">
         <v>101</v>
       </c>
+      <c r="E117"/>
+      <c r="F117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
@@ -5012,6 +5392,8 @@
       <c r="D118" t="s">
         <v>103</v>
       </c>
+      <c r="E118"/>
+      <c r="F118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -5026,6 +5408,8 @@
       <c r="D119" t="s">
         <v>97</v>
       </c>
+      <c r="E119"/>
+      <c r="F119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -5040,6 +5424,8 @@
       <c r="D120" t="s">
         <v>99</v>
       </c>
+      <c r="E120"/>
+      <c r="F120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -5054,6 +5440,8 @@
       <c r="D121" t="s">
         <v>85</v>
       </c>
+      <c r="E121"/>
+      <c r="F121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -5068,6 +5456,8 @@
       <c r="D122" t="s">
         <v>101</v>
       </c>
+      <c r="E122"/>
+      <c r="F122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -5082,6 +5472,8 @@
       <c r="D123" t="s">
         <v>103</v>
       </c>
+      <c r="E123"/>
+      <c r="F123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -5096,6 +5488,8 @@
       <c r="D124" t="s">
         <v>97</v>
       </c>
+      <c r="E124"/>
+      <c r="F124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -5110,6 +5504,8 @@
       <c r="D125" t="s">
         <v>99</v>
       </c>
+      <c r="E125"/>
+      <c r="F125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
@@ -5124,6 +5520,8 @@
       <c r="D126" t="s">
         <v>85</v>
       </c>
+      <c r="E126"/>
+      <c r="F126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
@@ -5138,6 +5536,8 @@
       <c r="D127" t="s">
         <v>101</v>
       </c>
+      <c r="E127"/>
+      <c r="F127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
@@ -5152,6 +5552,11 @@
       <c r="D128" t="s">
         <v>103</v>
       </c>
+      <c r="E128"/>
+      <c r="F128"/>
+    </row>
+    <row r="129">
+      <c r="A129"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5160,7 +5565,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
@@ -5247,6 +5652,8 @@
       <c r="D4" t="s">
         <v>122</v>
       </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -5261,6 +5668,8 @@
       <c r="D5" t="s">
         <v>124</v>
       </c>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -5275,6 +5684,8 @@
       <c r="D6" t="s">
         <v>126</v>
       </c>
+      <c r="E6"/>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -5289,6 +5700,8 @@
       <c r="D7" t="s">
         <v>122</v>
       </c>
+      <c r="E7"/>
+      <c r="F7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -5303,6 +5716,8 @@
       <c r="D8" t="s">
         <v>122</v>
       </c>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -5317,6 +5732,8 @@
       <c r="D9" t="s">
         <v>122</v>
       </c>
+      <c r="E9"/>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -5331,6 +5748,8 @@
       <c r="D10" t="s">
         <v>122</v>
       </c>
+      <c r="E10"/>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -5345,6 +5764,8 @@
       <c r="D11" t="s">
         <v>122</v>
       </c>
+      <c r="E11"/>
+      <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -5359,6 +5780,8 @@
       <c r="D12" t="s">
         <v>74</v>
       </c>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -5373,6 +5796,11 @@
       <c r="D13" t="s">
         <v>75</v>
       </c>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="302">
   <si>
     <t>R1</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>1912</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>BVT2</t>
@@ -2112,12 +2118,19 @@
       <c r="D4" t="s">
         <v>85</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -2128,12 +2141,19 @@
       <c r="D5" t="s">
         <v>85</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -2144,12 +2164,19 @@
       <c r="D6" t="s">
         <v>85</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -2160,12 +2187,19 @@
       <c r="D7" t="s">
         <v>85</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -2176,12 +2210,19 @@
       <c r="D8" t="s">
         <v>85</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -2192,12 +2233,19 @@
       <c r="D9" t="s">
         <v>85</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -2208,44 +2256,65 @@
       <c r="D10" t="s">
         <v>85</v>
       </c>
-      <c r="E10"/>
-      <c r="F10"/>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
       </c>
-      <c r="E11"/>
-      <c r="F11"/>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
         <v>85</v>
       </c>
-      <c r="E12"/>
-      <c r="F12"/>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -2254,14 +2323,21 @@
         <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -2270,14 +2346,21 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14"/>
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -2286,14 +2369,21 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15"/>
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -2302,10 +2392,17 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16"/>
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17"/>
@@ -2393,7 +2490,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -2404,12 +2501,19 @@
       <c r="D4" t="s">
         <v>85</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -2420,12 +2524,19 @@
       <c r="D5" t="s">
         <v>85</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -2436,12 +2547,19 @@
       <c r="D6" t="s">
         <v>85</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -2452,12 +2570,19 @@
       <c r="D7" t="s">
         <v>85</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -2468,12 +2593,19 @@
       <c r="D8" t="s">
         <v>85</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -2484,12 +2616,19 @@
       <c r="D9" t="s">
         <v>85</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -2500,44 +2639,65 @@
       <c r="D10" t="s">
         <v>85</v>
       </c>
-      <c r="E10"/>
-      <c r="F10"/>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
       </c>
-      <c r="E11"/>
-      <c r="F11"/>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
         <v>85</v>
       </c>
-      <c r="E12"/>
-      <c r="F12"/>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -2546,14 +2706,21 @@
         <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -2562,14 +2729,21 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14"/>
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -2578,14 +2752,21 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15"/>
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -2594,14 +2775,21 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16"/>
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -2612,12 +2800,19 @@
       <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="E17"/>
-      <c r="F17"/>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -2628,12 +2823,19 @@
       <c r="D18" t="s">
         <v>85</v>
       </c>
-      <c r="E18"/>
-      <c r="F18"/>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -2644,12 +2846,19 @@
       <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="E19"/>
-      <c r="F19"/>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -2660,8 +2869,15 @@
       <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="E20"/>
-      <c r="F20"/>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21"/>
@@ -2749,7 +2965,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -2758,14 +2974,21 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -2774,14 +2997,21 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -2790,158 +3020,228 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
         <v>128</v>
       </c>
-      <c r="D9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>124</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14"/>
+        <v>126</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15"/>
+        <v>128</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -2950,14 +3250,21 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16"/>
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -2966,14 +3273,21 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17"/>
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -2982,158 +3296,228 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18"/>
+        <v>128</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>124</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20"/>
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
         <v>128</v>
       </c>
-      <c r="D21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21"/>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23"/>
+        <v>126</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24"/>
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25"/>
+        <v>124</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26"/>
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27"/>
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -3142,14 +3526,21 @@
         <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28"/>
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -3158,14 +3549,21 @@
         <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29"/>
+        <v>126</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -3174,154 +3572,224 @@
         <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31"/>
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32"/>
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
       </c>
       <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
         <v>128</v>
       </c>
-      <c r="D33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34"/>
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35"/>
+        <v>126</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36"/>
+        <v>128</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
         <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37"/>
+        <v>124</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38"/>
+        <v>126</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39"/>
-      <c r="F39"/>
+        <v>128</v>
+      </c>
+      <c r="E39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40"/>
@@ -3409,7 +3877,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -3418,58 +3886,86 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8"/>
@@ -3557,7 +4053,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -3566,14 +4062,21 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -3582,14 +4085,21 @@
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -3600,12 +4110,19 @@
       <c r="D6" t="s">
         <v>85</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -3614,14 +4131,21 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -3630,14 +4154,21 @@
         <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -3646,14 +4177,21 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -3662,14 +4200,21 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -3680,12 +4225,19 @@
       <c r="D11" t="s">
         <v>85</v>
       </c>
-      <c r="E11"/>
-      <c r="F11"/>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -3694,14 +4246,21 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -3710,14 +4269,21 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -3726,14 +4292,21 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14"/>
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -3742,14 +4315,21 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15"/>
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -3760,12 +4340,19 @@
       <c r="D16" t="s">
         <v>85</v>
       </c>
-      <c r="E16"/>
-      <c r="F16"/>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -3774,14 +4361,21 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17"/>
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -3790,174 +4384,251 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18"/>
+        <v>105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20"/>
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
         <v>85</v>
       </c>
-      <c r="E21"/>
-      <c r="F21"/>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23"/>
+        <v>105</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24"/>
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25"/>
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
         <v>85</v>
       </c>
-      <c r="E26"/>
-      <c r="F26"/>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27"/>
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28"/>
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -3966,14 +4637,21 @@
         <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29"/>
+        <v>99</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -3982,14 +4660,21 @@
         <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
+        <v>101</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
@@ -4000,12 +4685,19 @@
       <c r="D31" t="s">
         <v>85</v>
       </c>
-      <c r="E31"/>
-      <c r="F31"/>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
@@ -4014,14 +4706,21 @@
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32"/>
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
@@ -4030,14 +4729,21 @@
         <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
@@ -4046,14 +4752,21 @@
         <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34"/>
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
@@ -4062,14 +4775,21 @@
         <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35"/>
+        <v>101</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
@@ -4080,12 +4800,19 @@
       <c r="D36" t="s">
         <v>85</v>
       </c>
-      <c r="E36"/>
-      <c r="F36"/>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
         <v>59</v>
@@ -4094,14 +4821,21 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37"/>
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
@@ -4110,14 +4844,21 @@
         <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38"/>
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
@@ -4126,14 +4867,21 @@
         <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39"/>
-      <c r="F39"/>
+        <v>99</v>
+      </c>
+      <c r="E39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
@@ -4142,14 +4890,21 @@
         <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40"/>
-      <c r="F40"/>
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
@@ -4160,12 +4915,19 @@
       <c r="D41" t="s">
         <v>85</v>
       </c>
-      <c r="E41"/>
-      <c r="F41"/>
+      <c r="E41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
@@ -4174,14 +4936,21 @@
         <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42"/>
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
@@ -4190,174 +4959,251 @@
         <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43"/>
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44"/>
+        <v>99</v>
+      </c>
+      <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45"/>
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s">
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
         <v>85</v>
       </c>
-      <c r="E46"/>
-      <c r="F46"/>
+      <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s">
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
+        <v>103</v>
+      </c>
+      <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48"/>
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49"/>
-      <c r="F49"/>
+        <v>99</v>
+      </c>
+      <c r="E49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s">
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50"/>
-      <c r="F50"/>
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
         <v>85</v>
       </c>
-      <c r="E51"/>
-      <c r="F51"/>
+      <c r="E51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52"/>
-      <c r="F52"/>
+        <v>103</v>
+      </c>
+      <c r="E52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53"/>
-      <c r="F53"/>
+        <v>105</v>
+      </c>
+      <c r="E53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -4366,14 +5212,21 @@
         <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54"/>
-      <c r="F54"/>
+        <v>99</v>
+      </c>
+      <c r="E54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -4382,14 +5235,21 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55"/>
-      <c r="F55"/>
+        <v>101</v>
+      </c>
+      <c r="E55" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -4400,12 +5260,19 @@
       <c r="D56" t="s">
         <v>85</v>
       </c>
-      <c r="E56"/>
-      <c r="F56"/>
+      <c r="E56" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -4414,14 +5281,21 @@
         <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57"/>
-      <c r="F57"/>
+        <v>103</v>
+      </c>
+      <c r="E57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -4430,14 +5304,21 @@
         <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58"/>
-      <c r="F58"/>
+        <v>105</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -4446,14 +5327,21 @@
         <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59"/>
-      <c r="F59"/>
+        <v>99</v>
+      </c>
+      <c r="E59" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -4462,14 +5350,21 @@
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60"/>
-      <c r="F60"/>
+        <v>101</v>
+      </c>
+      <c r="E60" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -4480,12 +5375,19 @@
       <c r="D61" t="s">
         <v>85</v>
       </c>
-      <c r="E61"/>
-      <c r="F61"/>
+      <c r="E61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -4494,14 +5396,21 @@
         <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62"/>
-      <c r="F62"/>
+        <v>103</v>
+      </c>
+      <c r="E62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
@@ -4510,14 +5419,21 @@
         <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63"/>
-      <c r="F63"/>
+        <v>105</v>
+      </c>
+      <c r="E63" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
@@ -4526,14 +5442,21 @@
         <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64"/>
+        <v>99</v>
+      </c>
+      <c r="E64" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" t="s">
+        <v>86</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B65" t="s">
         <v>60</v>
@@ -4542,14 +5465,21 @@
         <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65"/>
-      <c r="F65"/>
+        <v>101</v>
+      </c>
+      <c r="E65" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -4560,12 +5490,19 @@
       <c r="D66" t="s">
         <v>85</v>
       </c>
-      <c r="E66"/>
-      <c r="F66"/>
+      <c r="E66" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66" t="s">
+        <v>86</v>
+      </c>
+      <c r="G66" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B67" t="s">
         <v>60</v>
@@ -4574,14 +5511,21 @@
         <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67"/>
-      <c r="F67"/>
+        <v>103</v>
+      </c>
+      <c r="E67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
         <v>60</v>
@@ -4590,174 +5534,251 @@
         <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68"/>
-      <c r="F68"/>
+        <v>105</v>
+      </c>
+      <c r="E68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B69" t="s">
         <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
-      </c>
-      <c r="E69"/>
-      <c r="F69"/>
+        <v>99</v>
+      </c>
+      <c r="E69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B70" t="s">
         <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
-      </c>
-      <c r="E70"/>
-      <c r="F70"/>
+        <v>101</v>
+      </c>
+      <c r="E70" t="s">
+        <v>86</v>
+      </c>
+      <c r="F70" t="s">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B71" t="s">
         <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
         <v>85</v>
       </c>
-      <c r="E71"/>
-      <c r="F71"/>
+      <c r="E71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71" t="s">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B72" t="s">
         <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
-      </c>
-      <c r="E72"/>
-      <c r="F72"/>
+        <v>103</v>
+      </c>
+      <c r="E72" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B73" t="s">
         <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73"/>
-      <c r="F73"/>
+        <v>105</v>
+      </c>
+      <c r="E73" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B74" t="s">
         <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
-      </c>
-      <c r="E74"/>
-      <c r="F74"/>
+        <v>99</v>
+      </c>
+      <c r="E74" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" t="s">
+        <v>86</v>
+      </c>
+      <c r="G74" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B75" t="s">
         <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75"/>
-      <c r="F75"/>
+        <v>101</v>
+      </c>
+      <c r="E75" t="s">
+        <v>86</v>
+      </c>
+      <c r="F75" t="s">
+        <v>86</v>
+      </c>
+      <c r="G75" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B76" t="s">
         <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
         <v>85</v>
       </c>
-      <c r="E76"/>
-      <c r="F76"/>
+      <c r="E76" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>101</v>
-      </c>
-      <c r="E77"/>
-      <c r="F77"/>
+        <v>103</v>
+      </c>
+      <c r="E77" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78"/>
-      <c r="F78"/>
+        <v>105</v>
+      </c>
+      <c r="E78" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78" t="s">
+        <v>86</v>
+      </c>
+      <c r="G78" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B79" t="s">
         <v>61</v>
@@ -4766,14 +5787,21 @@
         <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>97</v>
-      </c>
-      <c r="E79"/>
-      <c r="F79"/>
+        <v>99</v>
+      </c>
+      <c r="E79" t="s">
+        <v>86</v>
+      </c>
+      <c r="F79" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
         <v>61</v>
@@ -4782,14 +5810,21 @@
         <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80"/>
-      <c r="F80"/>
+        <v>101</v>
+      </c>
+      <c r="E80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" t="s">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B81" t="s">
         <v>61</v>
@@ -4800,12 +5835,19 @@
       <c r="D81" t="s">
         <v>85</v>
       </c>
-      <c r="E81"/>
-      <c r="F81"/>
+      <c r="E81" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s">
         <v>61</v>
@@ -4814,14 +5856,21 @@
         <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>101</v>
-      </c>
-      <c r="E82"/>
-      <c r="F82"/>
+        <v>103</v>
+      </c>
+      <c r="E82" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" t="s">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s">
         <v>61</v>
@@ -4830,14 +5879,21 @@
         <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
-      </c>
-      <c r="E83"/>
-      <c r="F83"/>
+        <v>105</v>
+      </c>
+      <c r="E83" t="s">
+        <v>86</v>
+      </c>
+      <c r="F83" t="s">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B84" t="s">
         <v>61</v>
@@ -4846,14 +5902,21 @@
         <v>59</v>
       </c>
       <c r="D84" t="s">
-        <v>97</v>
-      </c>
-      <c r="E84"/>
-      <c r="F84"/>
+        <v>99</v>
+      </c>
+      <c r="E84" t="s">
+        <v>86</v>
+      </c>
+      <c r="F84" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B85" t="s">
         <v>61</v>
@@ -4862,14 +5925,21 @@
         <v>59</v>
       </c>
       <c r="D85" t="s">
-        <v>99</v>
-      </c>
-      <c r="E85"/>
-      <c r="F85"/>
+        <v>101</v>
+      </c>
+      <c r="E85" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85" t="s">
+        <v>86</v>
+      </c>
+      <c r="G85" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B86" t="s">
         <v>61</v>
@@ -4880,12 +5950,19 @@
       <c r="D86" t="s">
         <v>85</v>
       </c>
-      <c r="E86"/>
-      <c r="F86"/>
+      <c r="E86" t="s">
+        <v>86</v>
+      </c>
+      <c r="F86" t="s">
+        <v>86</v>
+      </c>
+      <c r="G86" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B87" t="s">
         <v>61</v>
@@ -4894,14 +5971,21 @@
         <v>59</v>
       </c>
       <c r="D87" t="s">
-        <v>101</v>
-      </c>
-      <c r="E87"/>
-      <c r="F87"/>
+        <v>103</v>
+      </c>
+      <c r="E87" t="s">
+        <v>86</v>
+      </c>
+      <c r="F87" t="s">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B88" t="s">
         <v>61</v>
@@ -4910,14 +5994,21 @@
         <v>59</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
-      </c>
-      <c r="E88"/>
-      <c r="F88"/>
+        <v>105</v>
+      </c>
+      <c r="E88" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" t="s">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B89" t="s">
         <v>61</v>
@@ -4926,14 +6017,21 @@
         <v>84</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
-      </c>
-      <c r="E89"/>
-      <c r="F89"/>
+        <v>99</v>
+      </c>
+      <c r="E89" t="s">
+        <v>86</v>
+      </c>
+      <c r="F89" t="s">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B90" t="s">
         <v>61</v>
@@ -4942,14 +6040,21 @@
         <v>84</v>
       </c>
       <c r="D90" t="s">
-        <v>99</v>
-      </c>
-      <c r="E90"/>
-      <c r="F90"/>
+        <v>101</v>
+      </c>
+      <c r="E90" t="s">
+        <v>86</v>
+      </c>
+      <c r="F90" t="s">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B91" t="s">
         <v>61</v>
@@ -4960,12 +6065,19 @@
       <c r="D91" t="s">
         <v>85</v>
       </c>
-      <c r="E91"/>
-      <c r="F91"/>
+      <c r="E91" t="s">
+        <v>86</v>
+      </c>
+      <c r="F91" t="s">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B92" t="s">
         <v>61</v>
@@ -4974,14 +6086,21 @@
         <v>84</v>
       </c>
       <c r="D92" t="s">
-        <v>101</v>
-      </c>
-      <c r="E92"/>
-      <c r="F92"/>
+        <v>103</v>
+      </c>
+      <c r="E92" t="s">
+        <v>86</v>
+      </c>
+      <c r="F92" t="s">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B93" t="s">
         <v>61</v>
@@ -4990,174 +6109,251 @@
         <v>84</v>
       </c>
       <c r="D93" t="s">
-        <v>103</v>
-      </c>
-      <c r="E93"/>
-      <c r="F93"/>
+        <v>105</v>
+      </c>
+      <c r="E93" t="s">
+        <v>86</v>
+      </c>
+      <c r="F93" t="s">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B94" t="s">
         <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D94" t="s">
-        <v>97</v>
-      </c>
-      <c r="E94"/>
-      <c r="F94"/>
+        <v>99</v>
+      </c>
+      <c r="E94" t="s">
+        <v>86</v>
+      </c>
+      <c r="F94" t="s">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B95" t="s">
         <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D95" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95"/>
-      <c r="F95"/>
+        <v>101</v>
+      </c>
+      <c r="E95" t="s">
+        <v>86</v>
+      </c>
+      <c r="F95" t="s">
+        <v>86</v>
+      </c>
+      <c r="G95" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B96" t="s">
         <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
         <v>85</v>
       </c>
-      <c r="E96"/>
-      <c r="F96"/>
+      <c r="E96" t="s">
+        <v>86</v>
+      </c>
+      <c r="F96" t="s">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B97" t="s">
         <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>101</v>
-      </c>
-      <c r="E97"/>
-      <c r="F97"/>
+        <v>103</v>
+      </c>
+      <c r="E97" t="s">
+        <v>86</v>
+      </c>
+      <c r="F97" t="s">
+        <v>86</v>
+      </c>
+      <c r="G97" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B98" t="s">
         <v>61</v>
       </c>
       <c r="C98" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>103</v>
-      </c>
-      <c r="E98"/>
-      <c r="F98"/>
+        <v>105</v>
+      </c>
+      <c r="E98" t="s">
+        <v>86</v>
+      </c>
+      <c r="F98" t="s">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B99" t="s">
         <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>97</v>
-      </c>
-      <c r="E99"/>
-      <c r="F99"/>
+        <v>99</v>
+      </c>
+      <c r="E99" t="s">
+        <v>86</v>
+      </c>
+      <c r="F99" t="s">
+        <v>86</v>
+      </c>
+      <c r="G99" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B100" t="s">
         <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D100" t="s">
-        <v>99</v>
-      </c>
-      <c r="E100"/>
-      <c r="F100"/>
+        <v>101</v>
+      </c>
+      <c r="E100" t="s">
+        <v>86</v>
+      </c>
+      <c r="F100" t="s">
+        <v>86</v>
+      </c>
+      <c r="G100" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B101" t="s">
         <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D101" t="s">
         <v>85</v>
       </c>
-      <c r="E101"/>
-      <c r="F101"/>
+      <c r="E101" t="s">
+        <v>86</v>
+      </c>
+      <c r="F101" t="s">
+        <v>86</v>
+      </c>
+      <c r="G101" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B102" t="s">
         <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D102" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102"/>
-      <c r="F102"/>
+        <v>103</v>
+      </c>
+      <c r="E102" t="s">
+        <v>86</v>
+      </c>
+      <c r="F102" t="s">
+        <v>86</v>
+      </c>
+      <c r="G102" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B103" t="s">
         <v>61</v>
       </c>
       <c r="C103" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>103</v>
-      </c>
-      <c r="E103"/>
-      <c r="F103"/>
+        <v>105</v>
+      </c>
+      <c r="E103" t="s">
+        <v>86</v>
+      </c>
+      <c r="F103" t="s">
+        <v>86</v>
+      </c>
+      <c r="G103" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B104" t="s">
         <v>62</v>
@@ -5166,14 +6362,21 @@
         <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>97</v>
-      </c>
-      <c r="E104"/>
-      <c r="F104"/>
+        <v>99</v>
+      </c>
+      <c r="E104" t="s">
+        <v>86</v>
+      </c>
+      <c r="F104" t="s">
+        <v>86</v>
+      </c>
+      <c r="G104" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B105" t="s">
         <v>62</v>
@@ -5182,14 +6385,21 @@
         <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>99</v>
-      </c>
-      <c r="E105"/>
-      <c r="F105"/>
+        <v>101</v>
+      </c>
+      <c r="E105" t="s">
+        <v>86</v>
+      </c>
+      <c r="F105" t="s">
+        <v>86</v>
+      </c>
+      <c r="G105" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B106" t="s">
         <v>62</v>
@@ -5200,12 +6410,19 @@
       <c r="D106" t="s">
         <v>85</v>
       </c>
-      <c r="E106"/>
-      <c r="F106"/>
+      <c r="E106" t="s">
+        <v>86</v>
+      </c>
+      <c r="F106" t="s">
+        <v>86</v>
+      </c>
+      <c r="G106" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B107" t="s">
         <v>62</v>
@@ -5214,14 +6431,21 @@
         <v>58</v>
       </c>
       <c r="D107" t="s">
-        <v>101</v>
-      </c>
-      <c r="E107"/>
-      <c r="F107"/>
+        <v>103</v>
+      </c>
+      <c r="E107" t="s">
+        <v>86</v>
+      </c>
+      <c r="F107" t="s">
+        <v>86</v>
+      </c>
+      <c r="G107" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B108" t="s">
         <v>62</v>
@@ -5230,14 +6454,21 @@
         <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>103</v>
-      </c>
-      <c r="E108"/>
-      <c r="F108"/>
+        <v>105</v>
+      </c>
+      <c r="E108" t="s">
+        <v>86</v>
+      </c>
+      <c r="F108" t="s">
+        <v>86</v>
+      </c>
+      <c r="G108" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B109" t="s">
         <v>62</v>
@@ -5246,14 +6477,21 @@
         <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>97</v>
-      </c>
-      <c r="E109"/>
-      <c r="F109"/>
+        <v>99</v>
+      </c>
+      <c r="E109" t="s">
+        <v>86</v>
+      </c>
+      <c r="F109" t="s">
+        <v>86</v>
+      </c>
+      <c r="G109" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B110" t="s">
         <v>62</v>
@@ -5262,14 +6500,21 @@
         <v>59</v>
       </c>
       <c r="D110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E110"/>
-      <c r="F110"/>
+        <v>101</v>
+      </c>
+      <c r="E110" t="s">
+        <v>86</v>
+      </c>
+      <c r="F110" t="s">
+        <v>86</v>
+      </c>
+      <c r="G110" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B111" t="s">
         <v>62</v>
@@ -5280,12 +6525,19 @@
       <c r="D111" t="s">
         <v>85</v>
       </c>
-      <c r="E111"/>
-      <c r="F111"/>
+      <c r="E111" t="s">
+        <v>86</v>
+      </c>
+      <c r="F111" t="s">
+        <v>86</v>
+      </c>
+      <c r="G111" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B112" t="s">
         <v>62</v>
@@ -5294,14 +6546,21 @@
         <v>59</v>
       </c>
       <c r="D112" t="s">
-        <v>101</v>
-      </c>
-      <c r="E112"/>
-      <c r="F112"/>
+        <v>103</v>
+      </c>
+      <c r="E112" t="s">
+        <v>86</v>
+      </c>
+      <c r="F112" t="s">
+        <v>86</v>
+      </c>
+      <c r="G112" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B113" t="s">
         <v>62</v>
@@ -5310,14 +6569,21 @@
         <v>59</v>
       </c>
       <c r="D113" t="s">
-        <v>103</v>
-      </c>
-      <c r="E113"/>
-      <c r="F113"/>
+        <v>105</v>
+      </c>
+      <c r="E113" t="s">
+        <v>86</v>
+      </c>
+      <c r="F113" t="s">
+        <v>86</v>
+      </c>
+      <c r="G113" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B114" t="s">
         <v>62</v>
@@ -5326,14 +6592,21 @@
         <v>84</v>
       </c>
       <c r="D114" t="s">
-        <v>97</v>
-      </c>
-      <c r="E114"/>
-      <c r="F114"/>
+        <v>99</v>
+      </c>
+      <c r="E114" t="s">
+        <v>86</v>
+      </c>
+      <c r="F114" t="s">
+        <v>86</v>
+      </c>
+      <c r="G114" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B115" t="s">
         <v>62</v>
@@ -5342,14 +6615,21 @@
         <v>84</v>
       </c>
       <c r="D115" t="s">
-        <v>99</v>
-      </c>
-      <c r="E115"/>
-      <c r="F115"/>
+        <v>101</v>
+      </c>
+      <c r="E115" t="s">
+        <v>86</v>
+      </c>
+      <c r="F115" t="s">
+        <v>86</v>
+      </c>
+      <c r="G115" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B116" t="s">
         <v>62</v>
@@ -5360,12 +6640,19 @@
       <c r="D116" t="s">
         <v>85</v>
       </c>
-      <c r="E116"/>
-      <c r="F116"/>
+      <c r="E116" t="s">
+        <v>86</v>
+      </c>
+      <c r="F116" t="s">
+        <v>86</v>
+      </c>
+      <c r="G116" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B117" t="s">
         <v>62</v>
@@ -5374,14 +6661,21 @@
         <v>84</v>
       </c>
       <c r="D117" t="s">
-        <v>101</v>
-      </c>
-      <c r="E117"/>
-      <c r="F117"/>
+        <v>103</v>
+      </c>
+      <c r="E117" t="s">
+        <v>86</v>
+      </c>
+      <c r="F117" t="s">
+        <v>86</v>
+      </c>
+      <c r="G117" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B118" t="s">
         <v>62</v>
@@ -5390,170 +6684,247 @@
         <v>84</v>
       </c>
       <c r="D118" t="s">
-        <v>103</v>
-      </c>
-      <c r="E118"/>
-      <c r="F118"/>
+        <v>105</v>
+      </c>
+      <c r="E118" t="s">
+        <v>86</v>
+      </c>
+      <c r="F118" t="s">
+        <v>86</v>
+      </c>
+      <c r="G118" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B119" t="s">
         <v>62</v>
       </c>
       <c r="C119" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D119" t="s">
-        <v>97</v>
-      </c>
-      <c r="E119"/>
-      <c r="F119"/>
+        <v>99</v>
+      </c>
+      <c r="E119" t="s">
+        <v>86</v>
+      </c>
+      <c r="F119" t="s">
+        <v>86</v>
+      </c>
+      <c r="G119" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B120" t="s">
         <v>62</v>
       </c>
       <c r="C120" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D120" t="s">
-        <v>99</v>
-      </c>
-      <c r="E120"/>
-      <c r="F120"/>
+        <v>101</v>
+      </c>
+      <c r="E120" t="s">
+        <v>86</v>
+      </c>
+      <c r="F120" t="s">
+        <v>86</v>
+      </c>
+      <c r="G120" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B121" t="s">
         <v>62</v>
       </c>
       <c r="C121" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D121" t="s">
         <v>85</v>
       </c>
-      <c r="E121"/>
-      <c r="F121"/>
+      <c r="E121" t="s">
+        <v>86</v>
+      </c>
+      <c r="F121" t="s">
+        <v>86</v>
+      </c>
+      <c r="G121" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B122" t="s">
         <v>62</v>
       </c>
       <c r="C122" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D122" t="s">
-        <v>101</v>
-      </c>
-      <c r="E122"/>
-      <c r="F122"/>
+        <v>103</v>
+      </c>
+      <c r="E122" t="s">
+        <v>86</v>
+      </c>
+      <c r="F122" t="s">
+        <v>86</v>
+      </c>
+      <c r="G122" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
         <v>62</v>
       </c>
       <c r="C123" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D123" t="s">
-        <v>103</v>
-      </c>
-      <c r="E123"/>
-      <c r="F123"/>
+        <v>105</v>
+      </c>
+      <c r="E123" t="s">
+        <v>86</v>
+      </c>
+      <c r="F123" t="s">
+        <v>86</v>
+      </c>
+      <c r="G123" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B124" t="s">
         <v>62</v>
       </c>
       <c r="C124" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D124" t="s">
-        <v>97</v>
-      </c>
-      <c r="E124"/>
-      <c r="F124"/>
+        <v>99</v>
+      </c>
+      <c r="E124" t="s">
+        <v>86</v>
+      </c>
+      <c r="F124" t="s">
+        <v>86</v>
+      </c>
+      <c r="G124" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B125" t="s">
         <v>62</v>
       </c>
       <c r="C125" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D125" t="s">
-        <v>99</v>
-      </c>
-      <c r="E125"/>
-      <c r="F125"/>
+        <v>101</v>
+      </c>
+      <c r="E125" t="s">
+        <v>86</v>
+      </c>
+      <c r="F125" t="s">
+        <v>86</v>
+      </c>
+      <c r="G125" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B126" t="s">
         <v>62</v>
       </c>
       <c r="C126" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D126" t="s">
         <v>85</v>
       </c>
-      <c r="E126"/>
-      <c r="F126"/>
+      <c r="E126" t="s">
+        <v>86</v>
+      </c>
+      <c r="F126" t="s">
+        <v>86</v>
+      </c>
+      <c r="G126" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B127" t="s">
         <v>62</v>
       </c>
       <c r="C127" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D127" t="s">
-        <v>101</v>
-      </c>
-      <c r="E127"/>
-      <c r="F127"/>
+        <v>103</v>
+      </c>
+      <c r="E127" t="s">
+        <v>86</v>
+      </c>
+      <c r="F127" t="s">
+        <v>86</v>
+      </c>
+      <c r="G127" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B128" t="s">
         <v>62</v>
       </c>
       <c r="C128" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D128" t="s">
-        <v>103</v>
-      </c>
-      <c r="E128"/>
-      <c r="F128"/>
+        <v>105</v>
+      </c>
+      <c r="E128" t="s">
+        <v>86</v>
+      </c>
+      <c r="F128" t="s">
+        <v>86</v>
+      </c>
+      <c r="G128" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129"/>
@@ -5641,7 +7012,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -5650,62 +7021,90 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -5714,14 +7113,21 @@
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -5730,14 +7136,21 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -5746,14 +7159,21 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -5762,14 +7182,21 @@
         <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
+        <v>124</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -5780,12 +7207,19 @@
       <c r="D12" t="s">
         <v>74</v>
       </c>
-      <c r="E12"/>
-      <c r="F12"/>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -5796,8 +7230,15 @@
       <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="E13"/>
-      <c r="F13"/>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14"/>

--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="437">
   <si>
     <t>R1</t>
   </si>
@@ -295,63 +295,102 @@
     <t/>
   </si>
   <si>
-    <t>Pass</t>
+    <t>1/16/1912</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>BVT2</t>
   </si>
   <si>
+    <t>2/16/1912</t>
+  </si>
+  <si>
     <t>BVT3</t>
   </si>
   <si>
+    <t>6/16/1912</t>
+  </si>
+  <si>
     <t>BVT4</t>
   </si>
   <si>
+    <t>11/16/1912</t>
+  </si>
+  <si>
     <t>BVT5</t>
   </si>
   <si>
+    <t>12/16/1912</t>
+  </si>
+  <si>
     <t>BVT6</t>
   </si>
   <si>
+    <t>6/2/1912</t>
+  </si>
+  <si>
     <t>BVT7</t>
   </si>
   <si>
+    <t>6/3/1912</t>
+  </si>
+  <si>
     <t>BVT8</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
+    <t>7/1/1912</t>
+  </si>
+  <si>
     <t>BVT9</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
+    <t>Invalid date</t>
+  </si>
+  <si>
     <t>BVT10</t>
   </si>
   <si>
     <t>1812</t>
   </si>
   <si>
+    <t>6/16/1812</t>
+  </si>
+  <si>
     <t>BVT11</t>
   </si>
   <si>
     <t>1813</t>
   </si>
   <si>
+    <t>6/16/1813</t>
+  </si>
+  <si>
     <t>BVT12</t>
   </si>
   <si>
     <t>2011</t>
   </si>
   <si>
+    <t>6/16/2011</t>
+  </si>
+  <si>
     <t>BVT13</t>
   </si>
   <si>
     <t>2012</t>
   </si>
   <si>
+    <t>6/16/2012</t>
+  </si>
+  <si>
     <t>RT1</t>
   </si>
   <si>
@@ -400,48 +439,81 @@
     <t>RT16</t>
   </si>
   <si>
+    <t>6/16/1811</t>
+  </si>
+  <si>
     <t>RT17</t>
   </si>
   <si>
+    <t>6/16/2013</t>
+  </si>
+  <si>
     <t>SET1</t>
   </si>
   <si>
     <t>1900</t>
   </si>
   <si>
+    <t>4/16/1900</t>
+  </si>
+  <si>
     <t>SET2</t>
   </si>
   <si>
     <t>1996</t>
   </si>
   <si>
+    <t>4/16/1996</t>
+  </si>
+  <si>
     <t>SET3</t>
   </si>
   <si>
     <t>1997</t>
   </si>
   <si>
+    <t>4/16/1997</t>
+  </si>
+  <si>
     <t>SET4</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
+    <t>4/30/1900</t>
+  </si>
+  <si>
     <t>SET5</t>
   </si>
   <si>
+    <t>4/30/1996</t>
+  </si>
+  <si>
     <t>SET6</t>
   </si>
   <si>
+    <t>4/30/1997</t>
+  </si>
+  <si>
     <t>SET7</t>
   </si>
   <si>
+    <t>5/1/1900</t>
+  </si>
+  <si>
     <t>SET8</t>
   </si>
   <si>
+    <t>5/1/1996</t>
+  </si>
+  <si>
     <t>SET9</t>
   </si>
   <si>
+    <t>5/1/1997</t>
+  </si>
+  <si>
     <t>SET10</t>
   </si>
   <si>
@@ -454,54 +526,102 @@
     <t>SET13</t>
   </si>
   <si>
+    <t>1/16/1900</t>
+  </si>
+  <si>
     <t>SET14</t>
   </si>
   <si>
+    <t>1/16/1996</t>
+  </si>
+  <si>
     <t>SET15</t>
   </si>
   <si>
+    <t>1/16/1997</t>
+  </si>
+  <si>
     <t>SET16</t>
   </si>
   <si>
+    <t>1/30/1900</t>
+  </si>
+  <si>
     <t>SET17</t>
   </si>
   <si>
+    <t>1/30/1996</t>
+  </si>
+  <si>
     <t>SET18</t>
   </si>
   <si>
+    <t>1/30/1997</t>
+  </si>
+  <si>
     <t>SET19</t>
   </si>
   <si>
+    <t>1/31/1900</t>
+  </si>
+  <si>
     <t>SET20</t>
   </si>
   <si>
+    <t>1/31/1996</t>
+  </si>
+  <si>
     <t>SET21</t>
   </si>
   <si>
+    <t>1/31/1997</t>
+  </si>
+  <si>
     <t>SET22</t>
   </si>
   <si>
+    <t>2/1/1900</t>
+  </si>
+  <si>
     <t>SET23</t>
   </si>
   <si>
+    <t>2/1/1996</t>
+  </si>
+  <si>
     <t>SET24</t>
   </si>
   <si>
+    <t>2/1/1997</t>
+  </si>
+  <si>
     <t>SET25</t>
   </si>
   <si>
+    <t>2/16/1900</t>
+  </si>
+  <si>
     <t>SET26</t>
   </si>
   <si>
+    <t>2/16/1996</t>
+  </si>
+  <si>
     <t>SET27</t>
   </si>
   <si>
+    <t>2/16/1997</t>
+  </si>
+  <si>
     <t>SET28</t>
   </si>
   <si>
     <t>SET29</t>
   </si>
   <si>
+    <t>3/1/1996</t>
+  </si>
+  <si>
     <t>SET30</t>
   </si>
   <si>
@@ -538,123 +658,237 @@
     <t>WCT1</t>
   </si>
   <si>
+    <t>1/2/1812</t>
+  </si>
+  <si>
     <t>WCT2</t>
   </si>
   <si>
+    <t>1/2/1813</t>
+  </si>
+  <si>
     <t>WCT3</t>
   </si>
   <si>
+    <t>1/2/1912</t>
+  </si>
+  <si>
     <t>WCT4</t>
   </si>
   <si>
+    <t>1/2/2011</t>
+  </si>
+  <si>
     <t>WCT5</t>
   </si>
   <si>
+    <t>1/2/2012</t>
+  </si>
+  <si>
     <t>WCT6</t>
   </si>
   <si>
+    <t>1/3/1812</t>
+  </si>
+  <si>
     <t>WCT7</t>
   </si>
   <si>
+    <t>1/3/1813</t>
+  </si>
+  <si>
     <t>WCT8</t>
   </si>
   <si>
+    <t>1/3/1912</t>
+  </si>
+  <si>
     <t>WCT9</t>
   </si>
   <si>
+    <t>1/3/2011</t>
+  </si>
+  <si>
     <t>WCT10</t>
   </si>
   <si>
+    <t>1/3/2012</t>
+  </si>
+  <si>
     <t>WCT11</t>
   </si>
   <si>
+    <t>1/16/1812</t>
+  </si>
+  <si>
     <t>WCT12</t>
   </si>
   <si>
+    <t>1/16/1813</t>
+  </si>
+  <si>
     <t>WCT13</t>
   </si>
   <si>
     <t>WCT14</t>
   </si>
   <si>
+    <t>1/16/2011</t>
+  </si>
+  <si>
     <t>WCT15</t>
   </si>
   <si>
+    <t>1/16/2012</t>
+  </si>
+  <si>
     <t>WCT16</t>
   </si>
   <si>
+    <t>1/31/1812</t>
+  </si>
+  <si>
     <t>WCT17</t>
   </si>
   <si>
+    <t>1/31/1813</t>
+  </si>
+  <si>
     <t>WCT18</t>
   </si>
   <si>
+    <t>1/31/1912</t>
+  </si>
+  <si>
     <t>WCT19</t>
   </si>
   <si>
+    <t>1/31/2011</t>
+  </si>
+  <si>
     <t>WCT20</t>
   </si>
   <si>
+    <t>1/31/2012</t>
+  </si>
+  <si>
     <t>WCT21</t>
   </si>
   <si>
+    <t>2/1/1812</t>
+  </si>
+  <si>
     <t>WCT22</t>
   </si>
   <si>
+    <t>2/1/1813</t>
+  </si>
+  <si>
     <t>WCT23</t>
   </si>
   <si>
+    <t>2/1/1912</t>
+  </si>
+  <si>
     <t>WCT24</t>
   </si>
   <si>
+    <t>2/1/2011</t>
+  </si>
+  <si>
     <t>WCT25</t>
   </si>
   <si>
+    <t>2/1/2012</t>
+  </si>
+  <si>
     <t>WCT26</t>
   </si>
   <si>
+    <t>2/2/1812</t>
+  </si>
+  <si>
     <t>WCT27</t>
   </si>
   <si>
+    <t>2/2/1813</t>
+  </si>
+  <si>
     <t>WCT28</t>
   </si>
   <si>
+    <t>2/2/1912</t>
+  </si>
+  <si>
     <t>WCT29</t>
   </si>
   <si>
+    <t>2/2/2011</t>
+  </si>
+  <si>
     <t>WCT30</t>
   </si>
   <si>
+    <t>2/2/2012</t>
+  </si>
+  <si>
     <t>WCT31</t>
   </si>
   <si>
+    <t>2/3/1812</t>
+  </si>
+  <si>
     <t>WCT32</t>
   </si>
   <si>
+    <t>2/3/1813</t>
+  </si>
+  <si>
     <t>WCT33</t>
   </si>
   <si>
+    <t>2/3/1912</t>
+  </si>
+  <si>
     <t>WCT34</t>
   </si>
   <si>
+    <t>2/3/2011</t>
+  </si>
+  <si>
     <t>WCT35</t>
   </si>
   <si>
+    <t>2/3/2012</t>
+  </si>
+  <si>
     <t>WCT36</t>
   </si>
   <si>
+    <t>2/16/1812</t>
+  </si>
+  <si>
     <t>WCT37</t>
   </si>
   <si>
+    <t>2/16/1813</t>
+  </si>
+  <si>
     <t>WCT38</t>
   </si>
   <si>
     <t>WCT39</t>
   </si>
   <si>
+    <t>2/16/2011</t>
+  </si>
+  <si>
     <t>WCT40</t>
   </si>
   <si>
+    <t>2/16/2012</t>
+  </si>
+  <si>
     <t>WCT41</t>
   </si>
   <si>
@@ -688,33 +922,57 @@
     <t>WCT51</t>
   </si>
   <si>
+    <t>6/2/1812</t>
+  </si>
+  <si>
     <t>WCT52</t>
   </si>
   <si>
+    <t>6/2/1813</t>
+  </si>
+  <si>
     <t>WCT53</t>
   </si>
   <si>
     <t>WCT54</t>
   </si>
   <si>
+    <t>6/2/2011</t>
+  </si>
+  <si>
     <t>WCT55</t>
   </si>
   <si>
+    <t>6/2/2012</t>
+  </si>
+  <si>
     <t>WCT56</t>
   </si>
   <si>
+    <t>6/3/1812</t>
+  </si>
+  <si>
     <t>WCT57</t>
   </si>
   <si>
+    <t>6/3/1813</t>
+  </si>
+  <si>
     <t>WCT58</t>
   </si>
   <si>
     <t>WCT59</t>
   </si>
   <si>
+    <t>6/3/2011</t>
+  </si>
+  <si>
     <t>WCT60</t>
   </si>
   <si>
+    <t>6/3/2012</t>
+  </si>
+  <si>
     <t>WCT61</t>
   </si>
   <si>
@@ -733,18 +991,30 @@
     <t>WCT66</t>
   </si>
   <si>
+    <t>7/1/1812</t>
+  </si>
+  <si>
     <t>WCT67</t>
   </si>
   <si>
+    <t>7/1/1813</t>
+  </si>
+  <si>
     <t>WCT68</t>
   </si>
   <si>
     <t>WCT69</t>
   </si>
   <si>
+    <t>7/1/2011</t>
+  </si>
+  <si>
     <t>WCT70</t>
   </si>
   <si>
+    <t>7/1/2012</t>
+  </si>
+  <si>
     <t>WCT71</t>
   </si>
   <si>
@@ -763,63 +1033,120 @@
     <t>WCT76</t>
   </si>
   <si>
+    <t>11/2/1812</t>
+  </si>
+  <si>
     <t>WCT77</t>
   </si>
   <si>
+    <t>11/2/1813</t>
+  </si>
+  <si>
     <t>WCT78</t>
   </si>
   <si>
+    <t>11/2/1912</t>
+  </si>
+  <si>
     <t>WCT79</t>
   </si>
   <si>
+    <t>11/2/2011</t>
+  </si>
+  <si>
     <t>WCT80</t>
   </si>
   <si>
+    <t>11/2/2012</t>
+  </si>
+  <si>
     <t>WCT81</t>
   </si>
   <si>
+    <t>11/3/1812</t>
+  </si>
+  <si>
     <t>WCT82</t>
   </si>
   <si>
+    <t>11/3/1813</t>
+  </si>
+  <si>
     <t>WCT83</t>
   </si>
   <si>
+    <t>11/3/1912</t>
+  </si>
+  <si>
     <t>WCT84</t>
   </si>
   <si>
+    <t>11/3/2011</t>
+  </si>
+  <si>
     <t>WCT85</t>
   </si>
   <si>
+    <t>11/3/2012</t>
+  </si>
+  <si>
     <t>WCT86</t>
   </si>
   <si>
+    <t>11/16/1812</t>
+  </si>
+  <si>
     <t>WCT87</t>
   </si>
   <si>
+    <t>11/16/1813</t>
+  </si>
+  <si>
     <t>WCT88</t>
   </si>
   <si>
     <t>WCT89</t>
   </si>
   <si>
+    <t>11/16/2011</t>
+  </si>
+  <si>
     <t>WCT90</t>
   </si>
   <si>
+    <t>11/16/2012</t>
+  </si>
+  <si>
     <t>WCT91</t>
   </si>
   <si>
+    <t>12/1/1812</t>
+  </si>
+  <si>
     <t>WCT92</t>
   </si>
   <si>
+    <t>12/1/1813</t>
+  </si>
+  <si>
     <t>WCT93</t>
   </si>
   <si>
+    <t>12/1/1912</t>
+  </si>
+  <si>
     <t>WCT94</t>
   </si>
   <si>
+    <t>12/1/2011</t>
+  </si>
+  <si>
     <t>WCT95</t>
   </si>
   <si>
+    <t>12/1/2012</t>
+  </si>
+  <si>
     <t>WCT96</t>
   </si>
   <si>
@@ -838,78 +1165,150 @@
     <t>WCT101</t>
   </si>
   <si>
+    <t>12/2/1812</t>
+  </si>
+  <si>
     <t>WCT102</t>
   </si>
   <si>
+    <t>12/2/1813</t>
+  </si>
+  <si>
     <t>WCT103</t>
   </si>
   <si>
+    <t>12/2/1912</t>
+  </si>
+  <si>
     <t>WCT104</t>
   </si>
   <si>
+    <t>12/2/2011</t>
+  </si>
+  <si>
     <t>WCT105</t>
   </si>
   <si>
+    <t>12/2/2012</t>
+  </si>
+  <si>
     <t>WCT106</t>
   </si>
   <si>
+    <t>12/3/1812</t>
+  </si>
+  <si>
     <t>WCT107</t>
   </si>
   <si>
+    <t>12/3/1813</t>
+  </si>
+  <si>
     <t>WCT108</t>
   </si>
   <si>
+    <t>12/3/1912</t>
+  </si>
+  <si>
     <t>WCT109</t>
   </si>
   <si>
+    <t>12/3/2011</t>
+  </si>
+  <si>
     <t>WCT110</t>
   </si>
   <si>
+    <t>12/3/2012</t>
+  </si>
+  <si>
     <t>WCT111</t>
   </si>
   <si>
+    <t>12/16/1812</t>
+  </si>
+  <si>
     <t>WCT112</t>
   </si>
   <si>
+    <t>12/16/1813</t>
+  </si>
+  <si>
     <t>WCT113</t>
   </si>
   <si>
     <t>WCT114</t>
   </si>
   <si>
+    <t>12/16/2011</t>
+  </si>
+  <si>
     <t>WCT115</t>
   </si>
   <si>
+    <t>12/16/2012</t>
+  </si>
+  <si>
     <t>WCT116</t>
   </si>
   <si>
+    <t>12/31/1812</t>
+  </si>
+  <si>
     <t>WCT117</t>
   </si>
   <si>
+    <t>12/31/1813</t>
+  </si>
+  <si>
     <t>WCT118</t>
   </si>
   <si>
+    <t>12/31/1912</t>
+  </si>
+  <si>
     <t>WCT119</t>
   </si>
   <si>
+    <t>12/31/2011</t>
+  </si>
+  <si>
     <t>WCT120</t>
   </si>
   <si>
+    <t>12/31/2012</t>
+  </si>
+  <si>
     <t>WCT121</t>
   </si>
   <si>
+    <t>1/1/1813</t>
+  </si>
+  <si>
     <t>WCT122</t>
   </si>
   <si>
+    <t>1/1/1814</t>
+  </si>
+  <si>
     <t>WCT123</t>
   </si>
   <si>
+    <t>1/1/1913</t>
+  </si>
+  <si>
     <t>WCT124</t>
   </si>
   <si>
+    <t>1/1/2012</t>
+  </si>
+  <si>
     <t>WCT125</t>
   </si>
   <si>
+    <t>1/1/2013</t>
+  </si>
+  <si>
     <t>TR1</t>
   </si>
   <si>
@@ -937,7 +1336,13 @@
     <t>TR9</t>
   </si>
   <si>
+    <t>4/16/1811</t>
+  </si>
+  <si>
     <t>TR10</t>
+  </si>
+  <si>
+    <t>4/16/2013</t>
   </si>
 </sst>
 </file>
@@ -2122,15 +2527,15 @@
         <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -2145,15 +2550,15 @@
         <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -2168,15 +2573,15 @@
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -2191,15 +2596,15 @@
         <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -2214,15 +2619,15 @@
         <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -2237,15 +2642,15 @@
         <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -2260,21 +2665,21 @@
         <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
@@ -2283,21 +2688,21 @@
         <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
         <v>85</v>
@@ -2306,15 +2711,15 @@
         <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -2323,21 +2728,21 @@
         <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
         <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -2346,21 +2751,21 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -2369,21 +2774,21 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
         <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -2392,16 +2797,16 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
         <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -2490,7 +2895,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -2505,15 +2910,15 @@
         <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -2528,15 +2933,15 @@
         <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -2551,15 +2956,15 @@
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -2574,15 +2979,15 @@
         <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -2597,15 +3002,15 @@
         <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -2620,15 +3025,15 @@
         <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -2643,21 +3048,21 @@
         <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
@@ -2666,21 +3071,21 @@
         <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
         <v>85</v>
@@ -2689,15 +3094,15 @@
         <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -2706,21 +3111,21 @@
         <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
         <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -2729,21 +3134,21 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -2752,21 +3157,21 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
         <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -2775,21 +3180,21 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
         <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -2804,15 +3209,15 @@
         <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -2827,15 +3232,15 @@
         <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -2850,15 +3255,15 @@
         <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -2873,10 +3278,10 @@
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -2965,7 +3370,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -2974,21 +3379,21 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
         <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -2997,21 +3402,21 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
         <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -3020,228 +3425,228 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
         <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
         <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
         <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
         <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
         <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
         <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
         <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
         <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -3250,21 +3655,21 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
         <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -3273,21 +3678,21 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
         <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -3296,228 +3701,228 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
         <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E19" t="s">
         <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E20" t="s">
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
         <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
         <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
         <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
         <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
         <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
         <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -3526,21 +3931,21 @@
         <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
         <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -3549,21 +3954,21 @@
         <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
         <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -3572,223 +3977,223 @@
         <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
         <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
         <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
         <v>86</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
         <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
         <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
         <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
         <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
         <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E37" t="s">
         <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E38" t="s">
         <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
         <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
@@ -3877,7 +4282,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -3886,85 +4291,85 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
         <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
         <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
         <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -4053,7 +4458,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -4062,21 +4467,21 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
         <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -4085,21 +4490,21 @@
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
         <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -4114,15 +4519,15 @@
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -4131,21 +4536,21 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
         <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -4154,21 +4559,21 @@
         <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
         <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -4177,21 +4582,21 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
         <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -4200,21 +4605,21 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
         <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -4229,15 +4634,15 @@
         <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -4246,21 +4651,21 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
         <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -4269,21 +4674,21 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
         <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -4292,21 +4697,21 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -4315,21 +4720,21 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
         <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -4344,15 +4749,15 @@
         <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -4361,21 +4766,21 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
         <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -4384,73 +4789,73 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
         <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
         <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>239</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
         <v>85</v>
@@ -4459,113 +4864,113 @@
         <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
         <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
         <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
         <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
         <v>85</v>
@@ -4574,61 +4979,61 @@
         <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
         <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
         <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -4637,21 +5042,21 @@
         <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
         <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -4660,21 +5065,21 @@
         <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
@@ -4689,15 +5094,15 @@
         <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
@@ -4706,21 +5111,21 @@
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
         <v>86</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
@@ -4729,21 +5134,21 @@
         <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
         <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
@@ -4752,21 +5157,21 @@
         <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
         <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
@@ -4775,21 +5180,21 @@
         <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
         <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
@@ -4804,15 +5209,15 @@
         <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s">
         <v>59</v>
@@ -4821,21 +5226,21 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
@@ -4844,21 +5249,21 @@
         <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
         <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
@@ -4867,21 +5272,21 @@
         <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
         <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
@@ -4890,21 +5295,21 @@
         <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>279</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
@@ -4919,15 +5324,15 @@
         <v>86</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
@@ -4936,21 +5341,21 @@
         <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>282</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
@@ -4959,73 +5364,73 @@
         <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
         <v>86</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
         <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
         <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="B46" t="s">
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
         <v>85</v>
@@ -5034,113 +5439,113 @@
         <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="B47" t="s">
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>86</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s">
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E48" t="s">
         <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
         <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="B50" t="s">
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
         <v>85</v>
@@ -5149,61 +5554,61 @@
         <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E52" t="s">
         <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E53" t="s">
         <v>86</v>
       </c>
       <c r="F53" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -5212,21 +5617,21 @@
         <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
         <v>86</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -5235,21 +5640,21 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
         <v>86</v>
       </c>
       <c r="F55" t="s">
-        <v>86</v>
+        <v>298</v>
       </c>
       <c r="G55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -5264,15 +5669,15 @@
         <v>86</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -5281,21 +5686,21 @@
         <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E57" t="s">
         <v>86</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>301</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -5304,21 +5709,21 @@
         <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E58" t="s">
         <v>86</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>303</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -5327,21 +5732,21 @@
         <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
         <v>86</v>
       </c>
       <c r="F59" t="s">
-        <v>86</v>
+        <v>305</v>
       </c>
       <c r="G59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -5350,21 +5755,21 @@
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E60" t="s">
         <v>86</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>307</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -5379,15 +5784,15 @@
         <v>86</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -5396,21 +5801,21 @@
         <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>86</v>
       </c>
       <c r="F62" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
@@ -5419,21 +5824,21 @@
         <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E63" t="s">
         <v>86</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="G63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
@@ -5442,21 +5847,21 @@
         <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
         <v>86</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="G64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="B65" t="s">
         <v>60</v>
@@ -5465,21 +5870,21 @@
         <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E65" t="s">
         <v>86</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="G65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -5494,15 +5899,15 @@
         <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="B67" t="s">
         <v>60</v>
@@ -5511,21 +5916,21 @@
         <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E67" t="s">
         <v>86</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="B68" t="s">
         <v>60</v>
@@ -5534,73 +5939,73 @@
         <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E68" t="s">
         <v>86</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="G68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="B69" t="s">
         <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E69" t="s">
         <v>86</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
+        <v>319</v>
       </c>
       <c r="G69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="B70" t="s">
         <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E70" t="s">
         <v>86</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
+        <v>321</v>
       </c>
       <c r="G70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="B71" t="s">
         <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
         <v>85</v>
@@ -5609,113 +6014,113 @@
         <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="B72" t="s">
         <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E72" t="s">
         <v>86</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>324</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>236</v>
+        <v>325</v>
       </c>
       <c r="B73" t="s">
         <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E73" t="s">
         <v>86</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>326</v>
       </c>
       <c r="G73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="B74" t="s">
         <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E74" t="s">
         <v>86</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="B75" t="s">
         <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E75" t="s">
         <v>86</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="B76" t="s">
         <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D76" t="s">
         <v>85</v>
@@ -5724,61 +6129,61 @@
         <v>86</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E77" t="s">
         <v>86</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E78" t="s">
         <v>86</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="B79" t="s">
         <v>61</v>
@@ -5787,21 +6192,21 @@
         <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>86</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
+        <v>333</v>
       </c>
       <c r="G79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c r="B80" t="s">
         <v>61</v>
@@ -5810,21 +6215,21 @@
         <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E80" t="s">
         <v>86</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="G80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>244</v>
+        <v>336</v>
       </c>
       <c r="B81" t="s">
         <v>61</v>
@@ -5839,15 +6244,15 @@
         <v>86</v>
       </c>
       <c r="F81" t="s">
-        <v>86</v>
+        <v>337</v>
       </c>
       <c r="G81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>245</v>
+        <v>338</v>
       </c>
       <c r="B82" t="s">
         <v>61</v>
@@ -5856,21 +6261,21 @@
         <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E82" t="s">
         <v>86</v>
       </c>
       <c r="F82" t="s">
-        <v>86</v>
+        <v>339</v>
       </c>
       <c r="G82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="B83" t="s">
         <v>61</v>
@@ -5879,21 +6284,21 @@
         <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E83" t="s">
         <v>86</v>
       </c>
       <c r="F83" t="s">
-        <v>86</v>
+        <v>341</v>
       </c>
       <c r="G83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>247</v>
+        <v>342</v>
       </c>
       <c r="B84" t="s">
         <v>61</v>
@@ -5902,21 +6307,21 @@
         <v>59</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>86</v>
       </c>
       <c r="F84" t="s">
-        <v>86</v>
+        <v>343</v>
       </c>
       <c r="G84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>248</v>
+        <v>344</v>
       </c>
       <c r="B85" t="s">
         <v>61</v>
@@ -5925,21 +6330,21 @@
         <v>59</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E85" t="s">
         <v>86</v>
       </c>
       <c r="F85" t="s">
-        <v>86</v>
+        <v>345</v>
       </c>
       <c r="G85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>249</v>
+        <v>346</v>
       </c>
       <c r="B86" t="s">
         <v>61</v>
@@ -5954,15 +6359,15 @@
         <v>86</v>
       </c>
       <c r="F86" t="s">
-        <v>86</v>
+        <v>347</v>
       </c>
       <c r="G86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>250</v>
+        <v>348</v>
       </c>
       <c r="B87" t="s">
         <v>61</v>
@@ -5971,21 +6376,21 @@
         <v>59</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E87" t="s">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>86</v>
+        <v>349</v>
       </c>
       <c r="G87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="B88" t="s">
         <v>61</v>
@@ -5994,21 +6399,21 @@
         <v>59</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E88" t="s">
         <v>86</v>
       </c>
       <c r="F88" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
       <c r="G88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>252</v>
+        <v>352</v>
       </c>
       <c r="B89" t="s">
         <v>61</v>
@@ -6017,21 +6422,21 @@
         <v>84</v>
       </c>
       <c r="D89" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>86</v>
       </c>
       <c r="F89" t="s">
-        <v>86</v>
+        <v>353</v>
       </c>
       <c r="G89" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>253</v>
+        <v>354</v>
       </c>
       <c r="B90" t="s">
         <v>61</v>
@@ -6040,21 +6445,21 @@
         <v>84</v>
       </c>
       <c r="D90" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E90" t="s">
         <v>86</v>
       </c>
       <c r="F90" t="s">
-        <v>86</v>
+        <v>355</v>
       </c>
       <c r="G90" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="B91" t="s">
         <v>61</v>
@@ -6069,15 +6474,15 @@
         <v>86</v>
       </c>
       <c r="F91" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G91" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>255</v>
+        <v>357</v>
       </c>
       <c r="B92" t="s">
         <v>61</v>
@@ -6086,21 +6491,21 @@
         <v>84</v>
       </c>
       <c r="D92" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E92" t="s">
         <v>86</v>
       </c>
       <c r="F92" t="s">
-        <v>86</v>
+        <v>358</v>
       </c>
       <c r="G92" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>256</v>
+        <v>359</v>
       </c>
       <c r="B93" t="s">
         <v>61</v>
@@ -6109,73 +6514,73 @@
         <v>84</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E93" t="s">
         <v>86</v>
       </c>
       <c r="F93" t="s">
-        <v>86</v>
+        <v>360</v>
       </c>
       <c r="G93" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>361</v>
       </c>
       <c r="B94" t="s">
         <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D94" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>86</v>
       </c>
       <c r="F94" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
       <c r="G94" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>258</v>
+        <v>363</v>
       </c>
       <c r="B95" t="s">
         <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D95" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E95" t="s">
         <v>86</v>
       </c>
       <c r="F95" t="s">
-        <v>86</v>
+        <v>364</v>
       </c>
       <c r="G95" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>259</v>
+        <v>365</v>
       </c>
       <c r="B96" t="s">
         <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D96" t="s">
         <v>85</v>
@@ -6184,113 +6589,113 @@
         <v>86</v>
       </c>
       <c r="F96" t="s">
-        <v>86</v>
+        <v>366</v>
       </c>
       <c r="G96" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="B97" t="s">
         <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D97" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E97" t="s">
         <v>86</v>
       </c>
       <c r="F97" t="s">
-        <v>86</v>
+        <v>368</v>
       </c>
       <c r="G97" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>261</v>
+        <v>369</v>
       </c>
       <c r="B98" t="s">
         <v>61</v>
       </c>
       <c r="C98" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E98" t="s">
         <v>86</v>
       </c>
       <c r="F98" t="s">
-        <v>86</v>
+        <v>370</v>
       </c>
       <c r="G98" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>262</v>
+        <v>371</v>
       </c>
       <c r="B99" t="s">
         <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D99" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E99" t="s">
         <v>86</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G99" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>263</v>
+        <v>372</v>
       </c>
       <c r="B100" t="s">
         <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D100" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E100" t="s">
         <v>86</v>
       </c>
       <c r="F100" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G100" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>264</v>
+        <v>373</v>
       </c>
       <c r="B101" t="s">
         <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D101" t="s">
         <v>85</v>
@@ -6299,61 +6704,61 @@
         <v>86</v>
       </c>
       <c r="F101" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G101" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>265</v>
+        <v>374</v>
       </c>
       <c r="B102" t="s">
         <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D102" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E102" t="s">
         <v>86</v>
       </c>
       <c r="F102" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G102" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>266</v>
+        <v>375</v>
       </c>
       <c r="B103" t="s">
         <v>61</v>
       </c>
       <c r="C103" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D103" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E103" t="s">
         <v>86</v>
       </c>
       <c r="F103" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G103" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>267</v>
+        <v>376</v>
       </c>
       <c r="B104" t="s">
         <v>62</v>
@@ -6362,21 +6767,21 @@
         <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E104" t="s">
         <v>86</v>
       </c>
       <c r="F104" t="s">
-        <v>86</v>
+        <v>377</v>
       </c>
       <c r="G104" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>268</v>
+        <v>378</v>
       </c>
       <c r="B105" t="s">
         <v>62</v>
@@ -6385,21 +6790,21 @@
         <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E105" t="s">
         <v>86</v>
       </c>
       <c r="F105" t="s">
-        <v>86</v>
+        <v>379</v>
       </c>
       <c r="G105" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>269</v>
+        <v>380</v>
       </c>
       <c r="B106" t="s">
         <v>62</v>
@@ -6414,15 +6819,15 @@
         <v>86</v>
       </c>
       <c r="F106" t="s">
-        <v>86</v>
+        <v>381</v>
       </c>
       <c r="G106" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>270</v>
+        <v>382</v>
       </c>
       <c r="B107" t="s">
         <v>62</v>
@@ -6431,21 +6836,21 @@
         <v>58</v>
       </c>
       <c r="D107" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E107" t="s">
         <v>86</v>
       </c>
       <c r="F107" t="s">
-        <v>86</v>
+        <v>383</v>
       </c>
       <c r="G107" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>271</v>
+        <v>384</v>
       </c>
       <c r="B108" t="s">
         <v>62</v>
@@ -6454,21 +6859,21 @@
         <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E108" t="s">
         <v>86</v>
       </c>
       <c r="F108" t="s">
-        <v>86</v>
+        <v>385</v>
       </c>
       <c r="G108" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>272</v>
+        <v>386</v>
       </c>
       <c r="B109" t="s">
         <v>62</v>
@@ -6477,21 +6882,21 @@
         <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E109" t="s">
         <v>86</v>
       </c>
       <c r="F109" t="s">
-        <v>86</v>
+        <v>387</v>
       </c>
       <c r="G109" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>273</v>
+        <v>388</v>
       </c>
       <c r="B110" t="s">
         <v>62</v>
@@ -6500,21 +6905,21 @@
         <v>59</v>
       </c>
       <c r="D110" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E110" t="s">
         <v>86</v>
       </c>
       <c r="F110" t="s">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="G110" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>274</v>
+        <v>390</v>
       </c>
       <c r="B111" t="s">
         <v>62</v>
@@ -6529,15 +6934,15 @@
         <v>86</v>
       </c>
       <c r="F111" t="s">
-        <v>86</v>
+        <v>391</v>
       </c>
       <c r="G111" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>275</v>
+        <v>392</v>
       </c>
       <c r="B112" t="s">
         <v>62</v>
@@ -6546,21 +6951,21 @@
         <v>59</v>
       </c>
       <c r="D112" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E112" t="s">
         <v>86</v>
       </c>
       <c r="F112" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="G112" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>276</v>
+        <v>394</v>
       </c>
       <c r="B113" t="s">
         <v>62</v>
@@ -6569,21 +6974,21 @@
         <v>59</v>
       </c>
       <c r="D113" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E113" t="s">
         <v>86</v>
       </c>
       <c r="F113" t="s">
-        <v>86</v>
+        <v>395</v>
       </c>
       <c r="G113" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="B114" t="s">
         <v>62</v>
@@ -6592,21 +6997,21 @@
         <v>84</v>
       </c>
       <c r="D114" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E114" t="s">
         <v>86</v>
       </c>
       <c r="F114" t="s">
-        <v>86</v>
+        <v>397</v>
       </c>
       <c r="G114" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>278</v>
+        <v>398</v>
       </c>
       <c r="B115" t="s">
         <v>62</v>
@@ -6615,21 +7020,21 @@
         <v>84</v>
       </c>
       <c r="D115" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E115" t="s">
         <v>86</v>
       </c>
       <c r="F115" t="s">
-        <v>86</v>
+        <v>399</v>
       </c>
       <c r="G115" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>279</v>
+        <v>400</v>
       </c>
       <c r="B116" t="s">
         <v>62</v>
@@ -6644,15 +7049,15 @@
         <v>86</v>
       </c>
       <c r="F116" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G116" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>280</v>
+        <v>401</v>
       </c>
       <c r="B117" t="s">
         <v>62</v>
@@ -6661,21 +7066,21 @@
         <v>84</v>
       </c>
       <c r="D117" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E117" t="s">
         <v>86</v>
       </c>
       <c r="F117" t="s">
-        <v>86</v>
+        <v>402</v>
       </c>
       <c r="G117" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>281</v>
+        <v>403</v>
       </c>
       <c r="B118" t="s">
         <v>62</v>
@@ -6684,73 +7089,73 @@
         <v>84</v>
       </c>
       <c r="D118" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E118" t="s">
         <v>86</v>
       </c>
       <c r="F118" t="s">
-        <v>86</v>
+        <v>404</v>
       </c>
       <c r="G118" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>282</v>
+        <v>405</v>
       </c>
       <c r="B119" t="s">
         <v>62</v>
       </c>
       <c r="C119" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D119" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E119" t="s">
         <v>86</v>
       </c>
       <c r="F119" t="s">
-        <v>86</v>
+        <v>406</v>
       </c>
       <c r="G119" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>283</v>
+        <v>407</v>
       </c>
       <c r="B120" t="s">
         <v>62</v>
       </c>
       <c r="C120" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D120" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E120" t="s">
         <v>86</v>
       </c>
       <c r="F120" t="s">
-        <v>86</v>
+        <v>408</v>
       </c>
       <c r="G120" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>284</v>
+        <v>409</v>
       </c>
       <c r="B121" t="s">
         <v>62</v>
       </c>
       <c r="C121" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D121" t="s">
         <v>85</v>
@@ -6759,113 +7164,113 @@
         <v>86</v>
       </c>
       <c r="F121" t="s">
-        <v>86</v>
+        <v>410</v>
       </c>
       <c r="G121" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>285</v>
+        <v>411</v>
       </c>
       <c r="B122" t="s">
         <v>62</v>
       </c>
       <c r="C122" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D122" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E122" t="s">
         <v>86</v>
       </c>
       <c r="F122" t="s">
-        <v>86</v>
+        <v>412</v>
       </c>
       <c r="G122" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>286</v>
+        <v>413</v>
       </c>
       <c r="B123" t="s">
         <v>62</v>
       </c>
       <c r="C123" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D123" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E123" t="s">
         <v>86</v>
       </c>
       <c r="F123" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="G123" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>287</v>
+        <v>415</v>
       </c>
       <c r="B124" t="s">
         <v>62</v>
       </c>
       <c r="C124" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D124" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E124" t="s">
         <v>86</v>
       </c>
       <c r="F124" t="s">
-        <v>86</v>
+        <v>416</v>
       </c>
       <c r="G124" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="B125" t="s">
         <v>62</v>
       </c>
       <c r="C125" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D125" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E125" t="s">
         <v>86</v>
       </c>
       <c r="F125" t="s">
-        <v>86</v>
+        <v>418</v>
       </c>
       <c r="G125" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>289</v>
+        <v>419</v>
       </c>
       <c r="B126" t="s">
         <v>62</v>
       </c>
       <c r="C126" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D126" t="s">
         <v>85</v>
@@ -6874,56 +7279,56 @@
         <v>86</v>
       </c>
       <c r="F126" t="s">
-        <v>86</v>
+        <v>420</v>
       </c>
       <c r="G126" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>290</v>
+        <v>421</v>
       </c>
       <c r="B127" t="s">
         <v>62</v>
       </c>
       <c r="C127" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D127" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E127" t="s">
         <v>86</v>
       </c>
       <c r="F127" t="s">
-        <v>86</v>
+        <v>422</v>
       </c>
       <c r="G127" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>291</v>
+        <v>423</v>
       </c>
       <c r="B128" t="s">
         <v>62</v>
       </c>
       <c r="C128" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D128" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E128" t="s">
         <v>86</v>
       </c>
       <c r="F128" t="s">
-        <v>86</v>
+        <v>424</v>
       </c>
       <c r="G128" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129">
@@ -7012,7 +7417,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -7021,90 +7426,90 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
         <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
         <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
         <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -7113,21 +7518,21 @@
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
         <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -7136,21 +7541,21 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
         <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>431</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -7159,21 +7564,21 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
         <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>432</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -7182,21 +7587,21 @@
         <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
         <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>433</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -7211,15 +7616,15 @@
         <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>434</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>435</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -7234,10 +7639,10 @@
         <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>436</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">

--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView tabRatio="850" windowHeight="2610" windowWidth="12840" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="2" tabRatio="850" windowHeight="2610" windowWidth="12840" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" r:id="rId1" sheetId="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="437">
   <si>
     <t>R1</t>
   </si>
@@ -292,1057 +292,1057 @@
     <t>1912</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>1/16/1912</t>
   </si>
   <si>
+    <t>BVT2</t>
+  </si>
+  <si>
+    <t>2/16/1912</t>
+  </si>
+  <si>
+    <t>BVT3</t>
+  </si>
+  <si>
+    <t>6/16/1912</t>
+  </si>
+  <si>
+    <t>BVT4</t>
+  </si>
+  <si>
+    <t>11/16/1912</t>
+  </si>
+  <si>
+    <t>BVT5</t>
+  </si>
+  <si>
+    <t>12/16/1912</t>
+  </si>
+  <si>
+    <t>BVT6</t>
+  </si>
+  <si>
+    <t>6/2/1912</t>
+  </si>
+  <si>
+    <t>BVT7</t>
+  </si>
+  <si>
+    <t>6/3/1912</t>
+  </si>
+  <si>
+    <t>BVT8</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>7/1/1912</t>
+  </si>
+  <si>
+    <t>BVT9</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Invalid date</t>
+  </si>
+  <si>
+    <t>BVT10</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>6/16/1812</t>
+  </si>
+  <si>
+    <t>BVT11</t>
+  </si>
+  <si>
+    <t>1813</t>
+  </si>
+  <si>
+    <t>6/16/1813</t>
+  </si>
+  <si>
+    <t>BVT12</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>6/16/2011</t>
+  </si>
+  <si>
+    <t>BVT13</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>6/16/2012</t>
+  </si>
+  <si>
+    <t>RT1</t>
+  </si>
+  <si>
+    <t>RT2</t>
+  </si>
+  <si>
+    <t>RT3</t>
+  </si>
+  <si>
+    <t>RT4</t>
+  </si>
+  <si>
+    <t>RT5</t>
+  </si>
+  <si>
+    <t>RT6</t>
+  </si>
+  <si>
+    <t>RT7</t>
+  </si>
+  <si>
+    <t>RT8</t>
+  </si>
+  <si>
+    <t>RT9</t>
+  </si>
+  <si>
+    <t>RT10</t>
+  </si>
+  <si>
+    <t>RT11</t>
+  </si>
+  <si>
+    <t>RT12</t>
+  </si>
+  <si>
+    <t>RT13</t>
+  </si>
+  <si>
+    <t>RT14</t>
+  </si>
+  <si>
+    <t>RT15</t>
+  </si>
+  <si>
+    <t>RT16</t>
+  </si>
+  <si>
+    <t>6/16/1811</t>
+  </si>
+  <si>
+    <t>RT17</t>
+  </si>
+  <si>
+    <t>6/16/2013</t>
+  </si>
+  <si>
+    <t>SET1</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>4/16/1900</t>
+  </si>
+  <si>
+    <t>SET2</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>4/16/1996</t>
+  </si>
+  <si>
+    <t>SET3</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>4/16/1997</t>
+  </si>
+  <si>
+    <t>SET4</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>4/30/1900</t>
+  </si>
+  <si>
+    <t>SET5</t>
+  </si>
+  <si>
+    <t>4/30/1996</t>
+  </si>
+  <si>
+    <t>SET6</t>
+  </si>
+  <si>
+    <t>4/30/1997</t>
+  </si>
+  <si>
+    <t>SET7</t>
+  </si>
+  <si>
+    <t>5/1/1900</t>
+  </si>
+  <si>
+    <t>SET8</t>
+  </si>
+  <si>
+    <t>5/1/1996</t>
+  </si>
+  <si>
+    <t>SET9</t>
+  </si>
+  <si>
+    <t>5/1/1997</t>
+  </si>
+  <si>
+    <t>SET10</t>
+  </si>
+  <si>
+    <t>SET11</t>
+  </si>
+  <si>
+    <t>SET12</t>
+  </si>
+  <si>
+    <t>SET13</t>
+  </si>
+  <si>
+    <t>1/16/1900</t>
+  </si>
+  <si>
+    <t>SET14</t>
+  </si>
+  <si>
+    <t>1/16/1996</t>
+  </si>
+  <si>
+    <t>SET15</t>
+  </si>
+  <si>
+    <t>1/16/1997</t>
+  </si>
+  <si>
+    <t>SET16</t>
+  </si>
+  <si>
+    <t>1/30/1900</t>
+  </si>
+  <si>
+    <t>SET17</t>
+  </si>
+  <si>
+    <t>1/30/1996</t>
+  </si>
+  <si>
+    <t>SET18</t>
+  </si>
+  <si>
+    <t>1/30/1997</t>
+  </si>
+  <si>
+    <t>SET19</t>
+  </si>
+  <si>
+    <t>1/31/1900</t>
+  </si>
+  <si>
+    <t>SET20</t>
+  </si>
+  <si>
+    <t>1/31/1996</t>
+  </si>
+  <si>
+    <t>SET21</t>
+  </si>
+  <si>
+    <t>1/31/1997</t>
+  </si>
+  <si>
+    <t>SET22</t>
+  </si>
+  <si>
+    <t>2/1/1900</t>
+  </si>
+  <si>
+    <t>SET23</t>
+  </si>
+  <si>
+    <t>2/1/1996</t>
+  </si>
+  <si>
+    <t>SET24</t>
+  </si>
+  <si>
+    <t>2/1/1997</t>
+  </si>
+  <si>
+    <t>SET25</t>
+  </si>
+  <si>
+    <t>2/16/1900</t>
+  </si>
+  <si>
+    <t>SET26</t>
+  </si>
+  <si>
+    <t>2/16/1996</t>
+  </si>
+  <si>
+    <t>SET27</t>
+  </si>
+  <si>
+    <t>2/16/1997</t>
+  </si>
+  <si>
+    <t>SET28</t>
+  </si>
+  <si>
+    <t>SET29</t>
+  </si>
+  <si>
+    <t>3/1/1996</t>
+  </si>
+  <si>
+    <t>SET30</t>
+  </si>
+  <si>
+    <t>SET31</t>
+  </si>
+  <si>
+    <t>SET32</t>
+  </si>
+  <si>
+    <t>SET33</t>
+  </si>
+  <si>
+    <t>SET34</t>
+  </si>
+  <si>
+    <t>SET35</t>
+  </si>
+  <si>
+    <t>SET36</t>
+  </si>
+  <si>
+    <t>WET1</t>
+  </si>
+  <si>
+    <t>WET2</t>
+  </si>
+  <si>
+    <t>WET3</t>
+  </si>
+  <si>
+    <t>WET4</t>
+  </si>
+  <si>
+    <t>WCT1</t>
+  </si>
+  <si>
+    <t>1/2/1812</t>
+  </si>
+  <si>
+    <t>WCT2</t>
+  </si>
+  <si>
+    <t>1/2/1813</t>
+  </si>
+  <si>
+    <t>WCT3</t>
+  </si>
+  <si>
+    <t>1/2/1912</t>
+  </si>
+  <si>
+    <t>WCT4</t>
+  </si>
+  <si>
+    <t>1/2/2011</t>
+  </si>
+  <si>
+    <t>WCT5</t>
+  </si>
+  <si>
+    <t>1/2/2012</t>
+  </si>
+  <si>
+    <t>WCT6</t>
+  </si>
+  <si>
+    <t>1/3/1812</t>
+  </si>
+  <si>
+    <t>WCT7</t>
+  </si>
+  <si>
+    <t>1/3/1813</t>
+  </si>
+  <si>
+    <t>WCT8</t>
+  </si>
+  <si>
+    <t>1/3/1912</t>
+  </si>
+  <si>
+    <t>WCT9</t>
+  </si>
+  <si>
+    <t>1/3/2011</t>
+  </si>
+  <si>
+    <t>WCT10</t>
+  </si>
+  <si>
+    <t>1/3/2012</t>
+  </si>
+  <si>
+    <t>WCT11</t>
+  </si>
+  <si>
+    <t>1/16/1812</t>
+  </si>
+  <si>
+    <t>WCT12</t>
+  </si>
+  <si>
+    <t>1/16/1813</t>
+  </si>
+  <si>
+    <t>WCT13</t>
+  </si>
+  <si>
+    <t>WCT14</t>
+  </si>
+  <si>
+    <t>1/16/2011</t>
+  </si>
+  <si>
+    <t>WCT15</t>
+  </si>
+  <si>
+    <t>1/16/2012</t>
+  </si>
+  <si>
+    <t>WCT16</t>
+  </si>
+  <si>
+    <t>1/31/1812</t>
+  </si>
+  <si>
+    <t>WCT17</t>
+  </si>
+  <si>
+    <t>1/31/1813</t>
+  </si>
+  <si>
+    <t>WCT18</t>
+  </si>
+  <si>
+    <t>1/31/1912</t>
+  </si>
+  <si>
+    <t>WCT19</t>
+  </si>
+  <si>
+    <t>1/31/2011</t>
+  </si>
+  <si>
+    <t>WCT20</t>
+  </si>
+  <si>
+    <t>1/31/2012</t>
+  </si>
+  <si>
+    <t>WCT21</t>
+  </si>
+  <si>
+    <t>2/1/1812</t>
+  </si>
+  <si>
+    <t>WCT22</t>
+  </si>
+  <si>
+    <t>2/1/1813</t>
+  </si>
+  <si>
+    <t>WCT23</t>
+  </si>
+  <si>
+    <t>2/1/1912</t>
+  </si>
+  <si>
+    <t>WCT24</t>
+  </si>
+  <si>
+    <t>2/1/2011</t>
+  </si>
+  <si>
+    <t>WCT25</t>
+  </si>
+  <si>
+    <t>2/1/2012</t>
+  </si>
+  <si>
+    <t>WCT26</t>
+  </si>
+  <si>
+    <t>2/2/1812</t>
+  </si>
+  <si>
+    <t>WCT27</t>
+  </si>
+  <si>
+    <t>2/2/1813</t>
+  </si>
+  <si>
+    <t>WCT28</t>
+  </si>
+  <si>
+    <t>2/2/1912</t>
+  </si>
+  <si>
+    <t>WCT29</t>
+  </si>
+  <si>
+    <t>2/2/2011</t>
+  </si>
+  <si>
+    <t>WCT30</t>
+  </si>
+  <si>
+    <t>2/2/2012</t>
+  </si>
+  <si>
+    <t>WCT31</t>
+  </si>
+  <si>
+    <t>2/3/1812</t>
+  </si>
+  <si>
+    <t>WCT32</t>
+  </si>
+  <si>
+    <t>2/3/1813</t>
+  </si>
+  <si>
+    <t>WCT33</t>
+  </si>
+  <si>
+    <t>2/3/1912</t>
+  </si>
+  <si>
+    <t>WCT34</t>
+  </si>
+  <si>
+    <t>2/3/2011</t>
+  </si>
+  <si>
+    <t>WCT35</t>
+  </si>
+  <si>
+    <t>2/3/2012</t>
+  </si>
+  <si>
+    <t>WCT36</t>
+  </si>
+  <si>
+    <t>2/16/1812</t>
+  </si>
+  <si>
+    <t>WCT37</t>
+  </si>
+  <si>
+    <t>2/16/1813</t>
+  </si>
+  <si>
+    <t>WCT38</t>
+  </si>
+  <si>
+    <t>WCT39</t>
+  </si>
+  <si>
+    <t>2/16/2011</t>
+  </si>
+  <si>
+    <t>WCT40</t>
+  </si>
+  <si>
+    <t>2/16/2012</t>
+  </si>
+  <si>
+    <t>WCT41</t>
+  </si>
+  <si>
+    <t>WCT42</t>
+  </si>
+  <si>
+    <t>WCT43</t>
+  </si>
+  <si>
+    <t>WCT44</t>
+  </si>
+  <si>
+    <t>WCT45</t>
+  </si>
+  <si>
+    <t>WCT46</t>
+  </si>
+  <si>
+    <t>WCT47</t>
+  </si>
+  <si>
+    <t>WCT48</t>
+  </si>
+  <si>
+    <t>WCT49</t>
+  </si>
+  <si>
+    <t>WCT50</t>
+  </si>
+  <si>
+    <t>WCT51</t>
+  </si>
+  <si>
+    <t>6/2/1812</t>
+  </si>
+  <si>
+    <t>WCT52</t>
+  </si>
+  <si>
+    <t>6/2/1813</t>
+  </si>
+  <si>
+    <t>WCT53</t>
+  </si>
+  <si>
+    <t>WCT54</t>
+  </si>
+  <si>
+    <t>6/2/2011</t>
+  </si>
+  <si>
+    <t>WCT55</t>
+  </si>
+  <si>
+    <t>6/2/2012</t>
+  </si>
+  <si>
+    <t>WCT56</t>
+  </si>
+  <si>
+    <t>6/3/1812</t>
+  </si>
+  <si>
+    <t>WCT57</t>
+  </si>
+  <si>
+    <t>6/3/1813</t>
+  </si>
+  <si>
+    <t>WCT58</t>
+  </si>
+  <si>
+    <t>WCT59</t>
+  </si>
+  <si>
+    <t>6/3/2011</t>
+  </si>
+  <si>
+    <t>WCT60</t>
+  </si>
+  <si>
+    <t>6/3/2012</t>
+  </si>
+  <si>
+    <t>WCT61</t>
+  </si>
+  <si>
+    <t>WCT62</t>
+  </si>
+  <si>
+    <t>WCT63</t>
+  </si>
+  <si>
+    <t>WCT64</t>
+  </si>
+  <si>
+    <t>WCT65</t>
+  </si>
+  <si>
+    <t>WCT66</t>
+  </si>
+  <si>
+    <t>7/1/1812</t>
+  </si>
+  <si>
+    <t>WCT67</t>
+  </si>
+  <si>
+    <t>7/1/1813</t>
+  </si>
+  <si>
+    <t>WCT68</t>
+  </si>
+  <si>
+    <t>WCT69</t>
+  </si>
+  <si>
+    <t>7/1/2011</t>
+  </si>
+  <si>
+    <t>WCT70</t>
+  </si>
+  <si>
+    <t>7/1/2012</t>
+  </si>
+  <si>
+    <t>WCT71</t>
+  </si>
+  <si>
+    <t>WCT72</t>
+  </si>
+  <si>
+    <t>WCT73</t>
+  </si>
+  <si>
+    <t>WCT74</t>
+  </si>
+  <si>
+    <t>WCT75</t>
+  </si>
+  <si>
+    <t>WCT76</t>
+  </si>
+  <si>
+    <t>11/2/1812</t>
+  </si>
+  <si>
+    <t>WCT77</t>
+  </si>
+  <si>
+    <t>11/2/1813</t>
+  </si>
+  <si>
+    <t>WCT78</t>
+  </si>
+  <si>
+    <t>11/2/1912</t>
+  </si>
+  <si>
+    <t>WCT79</t>
+  </si>
+  <si>
+    <t>11/2/2011</t>
+  </si>
+  <si>
+    <t>WCT80</t>
+  </si>
+  <si>
+    <t>11/2/2012</t>
+  </si>
+  <si>
+    <t>WCT81</t>
+  </si>
+  <si>
+    <t>11/3/1812</t>
+  </si>
+  <si>
+    <t>WCT82</t>
+  </si>
+  <si>
+    <t>11/3/1813</t>
+  </si>
+  <si>
+    <t>WCT83</t>
+  </si>
+  <si>
+    <t>11/3/1912</t>
+  </si>
+  <si>
+    <t>WCT84</t>
+  </si>
+  <si>
+    <t>11/3/2011</t>
+  </si>
+  <si>
+    <t>WCT85</t>
+  </si>
+  <si>
+    <t>11/3/2012</t>
+  </si>
+  <si>
+    <t>WCT86</t>
+  </si>
+  <si>
+    <t>11/16/1812</t>
+  </si>
+  <si>
+    <t>WCT87</t>
+  </si>
+  <si>
+    <t>11/16/1813</t>
+  </si>
+  <si>
+    <t>WCT88</t>
+  </si>
+  <si>
+    <t>WCT89</t>
+  </si>
+  <si>
+    <t>11/16/2011</t>
+  </si>
+  <si>
+    <t>WCT90</t>
+  </si>
+  <si>
+    <t>11/16/2012</t>
+  </si>
+  <si>
+    <t>WCT91</t>
+  </si>
+  <si>
+    <t>12/1/1812</t>
+  </si>
+  <si>
+    <t>WCT92</t>
+  </si>
+  <si>
+    <t>12/1/1813</t>
+  </si>
+  <si>
+    <t>WCT93</t>
+  </si>
+  <si>
+    <t>12/1/1912</t>
+  </si>
+  <si>
+    <t>WCT94</t>
+  </si>
+  <si>
+    <t>12/1/2011</t>
+  </si>
+  <si>
+    <t>WCT95</t>
+  </si>
+  <si>
+    <t>12/1/2012</t>
+  </si>
+  <si>
+    <t>WCT96</t>
+  </si>
+  <si>
+    <t>WCT97</t>
+  </si>
+  <si>
+    <t>WCT98</t>
+  </si>
+  <si>
+    <t>WCT99</t>
+  </si>
+  <si>
+    <t>WCT100</t>
+  </si>
+  <si>
+    <t>WCT101</t>
+  </si>
+  <si>
+    <t>12/2/1812</t>
+  </si>
+  <si>
+    <t>WCT102</t>
+  </si>
+  <si>
+    <t>12/2/1813</t>
+  </si>
+  <si>
+    <t>WCT103</t>
+  </si>
+  <si>
+    <t>12/2/1912</t>
+  </si>
+  <si>
+    <t>WCT104</t>
+  </si>
+  <si>
+    <t>12/2/2011</t>
+  </si>
+  <si>
+    <t>WCT105</t>
+  </si>
+  <si>
+    <t>12/2/2012</t>
+  </si>
+  <si>
+    <t>WCT106</t>
+  </si>
+  <si>
+    <t>12/3/1812</t>
+  </si>
+  <si>
+    <t>WCT107</t>
+  </si>
+  <si>
+    <t>12/3/1813</t>
+  </si>
+  <si>
+    <t>WCT108</t>
+  </si>
+  <si>
+    <t>12/3/1912</t>
+  </si>
+  <si>
+    <t>WCT109</t>
+  </si>
+  <si>
+    <t>12/3/2011</t>
+  </si>
+  <si>
+    <t>WCT110</t>
+  </si>
+  <si>
+    <t>12/3/2012</t>
+  </si>
+  <si>
+    <t>WCT111</t>
+  </si>
+  <si>
+    <t>12/16/1812</t>
+  </si>
+  <si>
+    <t>WCT112</t>
+  </si>
+  <si>
+    <t>12/16/1813</t>
+  </si>
+  <si>
+    <t>WCT113</t>
+  </si>
+  <si>
+    <t>WCT114</t>
+  </si>
+  <si>
+    <t>12/16/2011</t>
+  </si>
+  <si>
+    <t>WCT115</t>
+  </si>
+  <si>
+    <t>12/16/2012</t>
+  </si>
+  <si>
+    <t>WCT116</t>
+  </si>
+  <si>
+    <t>12/31/1812</t>
+  </si>
+  <si>
+    <t>WCT117</t>
+  </si>
+  <si>
+    <t>12/31/1813</t>
+  </si>
+  <si>
+    <t>WCT118</t>
+  </si>
+  <si>
+    <t>12/31/1912</t>
+  </si>
+  <si>
+    <t>WCT119</t>
+  </si>
+  <si>
+    <t>12/31/2011</t>
+  </si>
+  <si>
+    <t>WCT120</t>
+  </si>
+  <si>
+    <t>12/31/2012</t>
+  </si>
+  <si>
+    <t>WCT121</t>
+  </si>
+  <si>
+    <t>1/1/1813</t>
+  </si>
+  <si>
+    <t>WCT122</t>
+  </si>
+  <si>
+    <t>1/1/1814</t>
+  </si>
+  <si>
+    <t>WCT123</t>
+  </si>
+  <si>
+    <t>1/1/1913</t>
+  </si>
+  <si>
+    <t>WCT124</t>
+  </si>
+  <si>
+    <t>1/1/2012</t>
+  </si>
+  <si>
+    <t>WCT125</t>
+  </si>
+  <si>
+    <t>1/1/2013</t>
+  </si>
+  <si>
+    <t>TR1</t>
+  </si>
+  <si>
+    <t>TR2</t>
+  </si>
+  <si>
+    <t>TR3</t>
+  </si>
+  <si>
+    <t>TR4</t>
+  </si>
+  <si>
+    <t>TR5</t>
+  </si>
+  <si>
+    <t>TR6</t>
+  </si>
+  <si>
+    <t>TR7</t>
+  </si>
+  <si>
+    <t>TR8</t>
+  </si>
+  <si>
+    <t>TR9</t>
+  </si>
+  <si>
+    <t>4/16/1811</t>
+  </si>
+  <si>
+    <t>TR10</t>
+  </si>
+  <si>
+    <t>4/16/2013</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>BVT2</t>
-  </si>
-  <si>
-    <t>2/16/1912</t>
-  </si>
-  <si>
-    <t>BVT3</t>
-  </si>
-  <si>
-    <t>6/16/1912</t>
-  </si>
-  <si>
-    <t>BVT4</t>
-  </si>
-  <si>
-    <t>11/16/1912</t>
-  </si>
-  <si>
-    <t>BVT5</t>
-  </si>
-  <si>
-    <t>12/16/1912</t>
-  </si>
-  <si>
-    <t>BVT6</t>
-  </si>
-  <si>
-    <t>6/2/1912</t>
-  </si>
-  <si>
-    <t>BVT7</t>
-  </si>
-  <si>
-    <t>6/3/1912</t>
-  </si>
-  <si>
-    <t>BVT8</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>7/1/1912</t>
-  </si>
-  <si>
-    <t>BVT9</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Invalid date</t>
-  </si>
-  <si>
-    <t>BVT10</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>6/16/1812</t>
-  </si>
-  <si>
-    <t>BVT11</t>
-  </si>
-  <si>
-    <t>1813</t>
-  </si>
-  <si>
-    <t>6/16/1813</t>
-  </si>
-  <si>
-    <t>BVT12</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>6/16/2011</t>
-  </si>
-  <si>
-    <t>BVT13</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>6/16/2012</t>
-  </si>
-  <si>
-    <t>RT1</t>
-  </si>
-  <si>
-    <t>RT2</t>
-  </si>
-  <si>
-    <t>RT3</t>
-  </si>
-  <si>
-    <t>RT4</t>
-  </si>
-  <si>
-    <t>RT5</t>
-  </si>
-  <si>
-    <t>RT6</t>
-  </si>
-  <si>
-    <t>RT7</t>
-  </si>
-  <si>
-    <t>RT8</t>
-  </si>
-  <si>
-    <t>RT9</t>
-  </si>
-  <si>
-    <t>RT10</t>
-  </si>
-  <si>
-    <t>RT11</t>
-  </si>
-  <si>
-    <t>RT12</t>
-  </si>
-  <si>
-    <t>RT13</t>
-  </si>
-  <si>
-    <t>RT14</t>
-  </si>
-  <si>
-    <t>RT15</t>
-  </si>
-  <si>
-    <t>RT16</t>
-  </si>
-  <si>
-    <t>6/16/1811</t>
-  </si>
-  <si>
-    <t>RT17</t>
-  </si>
-  <si>
-    <t>6/16/2013</t>
-  </si>
-  <si>
-    <t>SET1</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>4/16/1900</t>
-  </si>
-  <si>
-    <t>SET2</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>4/16/1996</t>
-  </si>
-  <si>
-    <t>SET3</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>4/16/1997</t>
-  </si>
-  <si>
-    <t>SET4</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>4/30/1900</t>
-  </si>
-  <si>
-    <t>SET5</t>
-  </si>
-  <si>
-    <t>4/30/1996</t>
-  </si>
-  <si>
-    <t>SET6</t>
-  </si>
-  <si>
-    <t>4/30/1997</t>
-  </si>
-  <si>
-    <t>SET7</t>
-  </si>
-  <si>
-    <t>5/1/1900</t>
-  </si>
-  <si>
-    <t>SET8</t>
-  </si>
-  <si>
-    <t>5/1/1996</t>
-  </si>
-  <si>
-    <t>SET9</t>
-  </si>
-  <si>
-    <t>5/1/1997</t>
-  </si>
-  <si>
-    <t>SET10</t>
-  </si>
-  <si>
-    <t>SET11</t>
-  </si>
-  <si>
-    <t>SET12</t>
-  </si>
-  <si>
-    <t>SET13</t>
-  </si>
-  <si>
-    <t>1/16/1900</t>
-  </si>
-  <si>
-    <t>SET14</t>
-  </si>
-  <si>
-    <t>1/16/1996</t>
-  </si>
-  <si>
-    <t>SET15</t>
-  </si>
-  <si>
-    <t>1/16/1997</t>
-  </si>
-  <si>
-    <t>SET16</t>
-  </si>
-  <si>
-    <t>1/30/1900</t>
-  </si>
-  <si>
-    <t>SET17</t>
-  </si>
-  <si>
-    <t>1/30/1996</t>
-  </si>
-  <si>
-    <t>SET18</t>
-  </si>
-  <si>
-    <t>1/30/1997</t>
-  </si>
-  <si>
-    <t>SET19</t>
-  </si>
-  <si>
-    <t>1/31/1900</t>
-  </si>
-  <si>
-    <t>SET20</t>
-  </si>
-  <si>
-    <t>1/31/1996</t>
-  </si>
-  <si>
-    <t>SET21</t>
-  </si>
-  <si>
-    <t>1/31/1997</t>
-  </si>
-  <si>
-    <t>SET22</t>
-  </si>
-  <si>
-    <t>2/1/1900</t>
-  </si>
-  <si>
-    <t>SET23</t>
-  </si>
-  <si>
-    <t>2/1/1996</t>
-  </si>
-  <si>
-    <t>SET24</t>
-  </si>
-  <si>
-    <t>2/1/1997</t>
-  </si>
-  <si>
-    <t>SET25</t>
-  </si>
-  <si>
-    <t>2/16/1900</t>
-  </si>
-  <si>
-    <t>SET26</t>
-  </si>
-  <si>
-    <t>2/16/1996</t>
-  </si>
-  <si>
-    <t>SET27</t>
-  </si>
-  <si>
-    <t>2/16/1997</t>
-  </si>
-  <si>
-    <t>SET28</t>
-  </si>
-  <si>
-    <t>SET29</t>
-  </si>
-  <si>
-    <t>3/1/1996</t>
-  </si>
-  <si>
-    <t>SET30</t>
-  </si>
-  <si>
-    <t>SET31</t>
-  </si>
-  <si>
-    <t>SET32</t>
-  </si>
-  <si>
-    <t>SET33</t>
-  </si>
-  <si>
-    <t>SET34</t>
-  </si>
-  <si>
-    <t>SET35</t>
-  </si>
-  <si>
-    <t>SET36</t>
-  </si>
-  <si>
-    <t>WET1</t>
-  </si>
-  <si>
-    <t>WET2</t>
-  </si>
-  <si>
-    <t>WET3</t>
-  </si>
-  <si>
-    <t>WET4</t>
-  </si>
-  <si>
-    <t>WCT1</t>
-  </si>
-  <si>
-    <t>1/2/1812</t>
-  </si>
-  <si>
-    <t>WCT2</t>
-  </si>
-  <si>
-    <t>1/2/1813</t>
-  </si>
-  <si>
-    <t>WCT3</t>
-  </si>
-  <si>
-    <t>1/2/1912</t>
-  </si>
-  <si>
-    <t>WCT4</t>
-  </si>
-  <si>
-    <t>1/2/2011</t>
-  </si>
-  <si>
-    <t>WCT5</t>
-  </si>
-  <si>
-    <t>1/2/2012</t>
-  </si>
-  <si>
-    <t>WCT6</t>
-  </si>
-  <si>
-    <t>1/3/1812</t>
-  </si>
-  <si>
-    <t>WCT7</t>
-  </si>
-  <si>
-    <t>1/3/1813</t>
-  </si>
-  <si>
-    <t>WCT8</t>
-  </si>
-  <si>
-    <t>1/3/1912</t>
-  </si>
-  <si>
-    <t>WCT9</t>
-  </si>
-  <si>
-    <t>1/3/2011</t>
-  </si>
-  <si>
-    <t>WCT10</t>
-  </si>
-  <si>
-    <t>1/3/2012</t>
-  </si>
-  <si>
-    <t>WCT11</t>
-  </si>
-  <si>
-    <t>1/16/1812</t>
-  </si>
-  <si>
-    <t>WCT12</t>
-  </si>
-  <si>
-    <t>1/16/1813</t>
-  </si>
-  <si>
-    <t>WCT13</t>
-  </si>
-  <si>
-    <t>WCT14</t>
-  </si>
-  <si>
-    <t>1/16/2011</t>
-  </si>
-  <si>
-    <t>WCT15</t>
-  </si>
-  <si>
-    <t>1/16/2012</t>
-  </si>
-  <si>
-    <t>WCT16</t>
-  </si>
-  <si>
-    <t>1/31/1812</t>
-  </si>
-  <si>
-    <t>WCT17</t>
-  </si>
-  <si>
-    <t>1/31/1813</t>
-  </si>
-  <si>
-    <t>WCT18</t>
-  </si>
-  <si>
-    <t>1/31/1912</t>
-  </si>
-  <si>
-    <t>WCT19</t>
-  </si>
-  <si>
-    <t>1/31/2011</t>
-  </si>
-  <si>
-    <t>WCT20</t>
-  </si>
-  <si>
-    <t>1/31/2012</t>
-  </si>
-  <si>
-    <t>WCT21</t>
-  </si>
-  <si>
-    <t>2/1/1812</t>
-  </si>
-  <si>
-    <t>WCT22</t>
-  </si>
-  <si>
-    <t>2/1/1813</t>
-  </si>
-  <si>
-    <t>WCT23</t>
-  </si>
-  <si>
-    <t>2/1/1912</t>
-  </si>
-  <si>
-    <t>WCT24</t>
-  </si>
-  <si>
-    <t>2/1/2011</t>
-  </si>
-  <si>
-    <t>WCT25</t>
-  </si>
-  <si>
-    <t>2/1/2012</t>
-  </si>
-  <si>
-    <t>WCT26</t>
-  </si>
-  <si>
-    <t>2/2/1812</t>
-  </si>
-  <si>
-    <t>WCT27</t>
-  </si>
-  <si>
-    <t>2/2/1813</t>
-  </si>
-  <si>
-    <t>WCT28</t>
-  </si>
-  <si>
-    <t>2/2/1912</t>
-  </si>
-  <si>
-    <t>WCT29</t>
-  </si>
-  <si>
-    <t>2/2/2011</t>
-  </si>
-  <si>
-    <t>WCT30</t>
-  </si>
-  <si>
-    <t>2/2/2012</t>
-  </si>
-  <si>
-    <t>WCT31</t>
-  </si>
-  <si>
-    <t>2/3/1812</t>
-  </si>
-  <si>
-    <t>WCT32</t>
-  </si>
-  <si>
-    <t>2/3/1813</t>
-  </si>
-  <si>
-    <t>WCT33</t>
-  </si>
-  <si>
-    <t>2/3/1912</t>
-  </si>
-  <si>
-    <t>WCT34</t>
-  </si>
-  <si>
-    <t>2/3/2011</t>
-  </si>
-  <si>
-    <t>WCT35</t>
-  </si>
-  <si>
-    <t>2/3/2012</t>
-  </si>
-  <si>
-    <t>WCT36</t>
-  </si>
-  <si>
-    <t>2/16/1812</t>
-  </si>
-  <si>
-    <t>WCT37</t>
-  </si>
-  <si>
-    <t>2/16/1813</t>
-  </si>
-  <si>
-    <t>WCT38</t>
-  </si>
-  <si>
-    <t>WCT39</t>
-  </si>
-  <si>
-    <t>2/16/2011</t>
-  </si>
-  <si>
-    <t>WCT40</t>
-  </si>
-  <si>
-    <t>2/16/2012</t>
-  </si>
-  <si>
-    <t>WCT41</t>
-  </si>
-  <si>
-    <t>WCT42</t>
-  </si>
-  <si>
-    <t>WCT43</t>
-  </si>
-  <si>
-    <t>WCT44</t>
-  </si>
-  <si>
-    <t>WCT45</t>
-  </si>
-  <si>
-    <t>WCT46</t>
-  </si>
-  <si>
-    <t>WCT47</t>
-  </si>
-  <si>
-    <t>WCT48</t>
-  </si>
-  <si>
-    <t>WCT49</t>
-  </si>
-  <si>
-    <t>WCT50</t>
-  </si>
-  <si>
-    <t>WCT51</t>
-  </si>
-  <si>
-    <t>6/2/1812</t>
-  </si>
-  <si>
-    <t>WCT52</t>
-  </si>
-  <si>
-    <t>6/2/1813</t>
-  </si>
-  <si>
-    <t>WCT53</t>
-  </si>
-  <si>
-    <t>WCT54</t>
-  </si>
-  <si>
-    <t>6/2/2011</t>
-  </si>
-  <si>
-    <t>WCT55</t>
-  </si>
-  <si>
-    <t>6/2/2012</t>
-  </si>
-  <si>
-    <t>WCT56</t>
-  </si>
-  <si>
-    <t>6/3/1812</t>
-  </si>
-  <si>
-    <t>WCT57</t>
-  </si>
-  <si>
-    <t>6/3/1813</t>
-  </si>
-  <si>
-    <t>WCT58</t>
-  </si>
-  <si>
-    <t>WCT59</t>
-  </si>
-  <si>
-    <t>6/3/2011</t>
-  </si>
-  <si>
-    <t>WCT60</t>
-  </si>
-  <si>
-    <t>6/3/2012</t>
-  </si>
-  <si>
-    <t>WCT61</t>
-  </si>
-  <si>
-    <t>WCT62</t>
-  </si>
-  <si>
-    <t>WCT63</t>
-  </si>
-  <si>
-    <t>WCT64</t>
-  </si>
-  <si>
-    <t>WCT65</t>
-  </si>
-  <si>
-    <t>WCT66</t>
-  </si>
-  <si>
-    <t>7/1/1812</t>
-  </si>
-  <si>
-    <t>WCT67</t>
-  </si>
-  <si>
-    <t>7/1/1813</t>
-  </si>
-  <si>
-    <t>WCT68</t>
-  </si>
-  <si>
-    <t>WCT69</t>
-  </si>
-  <si>
-    <t>7/1/2011</t>
-  </si>
-  <si>
-    <t>WCT70</t>
-  </si>
-  <si>
-    <t>7/1/2012</t>
-  </si>
-  <si>
-    <t>WCT71</t>
-  </si>
-  <si>
-    <t>WCT72</t>
-  </si>
-  <si>
-    <t>WCT73</t>
-  </si>
-  <si>
-    <t>WCT74</t>
-  </si>
-  <si>
-    <t>WCT75</t>
-  </si>
-  <si>
-    <t>WCT76</t>
-  </si>
-  <si>
-    <t>11/2/1812</t>
-  </si>
-  <si>
-    <t>WCT77</t>
-  </si>
-  <si>
-    <t>11/2/1813</t>
-  </si>
-  <si>
-    <t>WCT78</t>
-  </si>
-  <si>
-    <t>11/2/1912</t>
-  </si>
-  <si>
-    <t>WCT79</t>
-  </si>
-  <si>
-    <t>11/2/2011</t>
-  </si>
-  <si>
-    <t>WCT80</t>
-  </si>
-  <si>
-    <t>11/2/2012</t>
-  </si>
-  <si>
-    <t>WCT81</t>
-  </si>
-  <si>
-    <t>11/3/1812</t>
-  </si>
-  <si>
-    <t>WCT82</t>
-  </si>
-  <si>
-    <t>11/3/1813</t>
-  </si>
-  <si>
-    <t>WCT83</t>
-  </si>
-  <si>
-    <t>11/3/1912</t>
-  </si>
-  <si>
-    <t>WCT84</t>
-  </si>
-  <si>
-    <t>11/3/2011</t>
-  </si>
-  <si>
-    <t>WCT85</t>
-  </si>
-  <si>
-    <t>11/3/2012</t>
-  </si>
-  <si>
-    <t>WCT86</t>
-  </si>
-  <si>
-    <t>11/16/1812</t>
-  </si>
-  <si>
-    <t>WCT87</t>
-  </si>
-  <si>
-    <t>11/16/1813</t>
-  </si>
-  <si>
-    <t>WCT88</t>
-  </si>
-  <si>
-    <t>WCT89</t>
-  </si>
-  <si>
-    <t>11/16/2011</t>
-  </si>
-  <si>
-    <t>WCT90</t>
-  </si>
-  <si>
-    <t>11/16/2012</t>
-  </si>
-  <si>
-    <t>WCT91</t>
-  </si>
-  <si>
-    <t>12/1/1812</t>
-  </si>
-  <si>
-    <t>WCT92</t>
-  </si>
-  <si>
-    <t>12/1/1813</t>
-  </si>
-  <si>
-    <t>WCT93</t>
-  </si>
-  <si>
-    <t>12/1/1912</t>
-  </si>
-  <si>
-    <t>WCT94</t>
-  </si>
-  <si>
-    <t>12/1/2011</t>
-  </si>
-  <si>
-    <t>WCT95</t>
-  </si>
-  <si>
-    <t>12/1/2012</t>
-  </si>
-  <si>
-    <t>WCT96</t>
-  </si>
-  <si>
-    <t>WCT97</t>
-  </si>
-  <si>
-    <t>WCT98</t>
-  </si>
-  <si>
-    <t>WCT99</t>
-  </si>
-  <si>
-    <t>WCT100</t>
-  </si>
-  <si>
-    <t>WCT101</t>
-  </si>
-  <si>
-    <t>12/2/1812</t>
-  </si>
-  <si>
-    <t>WCT102</t>
-  </si>
-  <si>
-    <t>12/2/1813</t>
-  </si>
-  <si>
-    <t>WCT103</t>
-  </si>
-  <si>
-    <t>12/2/1912</t>
-  </si>
-  <si>
-    <t>WCT104</t>
-  </si>
-  <si>
-    <t>12/2/2011</t>
-  </si>
-  <si>
-    <t>WCT105</t>
-  </si>
-  <si>
-    <t>12/2/2012</t>
-  </si>
-  <si>
-    <t>WCT106</t>
-  </si>
-  <si>
-    <t>12/3/1812</t>
-  </si>
-  <si>
-    <t>WCT107</t>
-  </si>
-  <si>
-    <t>12/3/1813</t>
-  </si>
-  <si>
-    <t>WCT108</t>
-  </si>
-  <si>
-    <t>12/3/1912</t>
-  </si>
-  <si>
-    <t>WCT109</t>
-  </si>
-  <si>
-    <t>12/3/2011</t>
-  </si>
-  <si>
-    <t>WCT110</t>
-  </si>
-  <si>
-    <t>12/3/2012</t>
-  </si>
-  <si>
-    <t>WCT111</t>
-  </si>
-  <si>
-    <t>12/16/1812</t>
-  </si>
-  <si>
-    <t>WCT112</t>
-  </si>
-  <si>
-    <t>12/16/1813</t>
-  </si>
-  <si>
-    <t>WCT113</t>
-  </si>
-  <si>
-    <t>WCT114</t>
-  </si>
-  <si>
-    <t>12/16/2011</t>
-  </si>
-  <si>
-    <t>WCT115</t>
-  </si>
-  <si>
-    <t>12/16/2012</t>
-  </si>
-  <si>
-    <t>WCT116</t>
-  </si>
-  <si>
-    <t>12/31/1812</t>
-  </si>
-  <si>
-    <t>WCT117</t>
-  </si>
-  <si>
-    <t>12/31/1813</t>
-  </si>
-  <si>
-    <t>WCT118</t>
-  </si>
-  <si>
-    <t>12/31/1912</t>
-  </si>
-  <si>
-    <t>WCT119</t>
-  </si>
-  <si>
-    <t>12/31/2011</t>
-  </si>
-  <si>
-    <t>WCT120</t>
-  </si>
-  <si>
-    <t>12/31/2012</t>
-  </si>
-  <si>
-    <t>WCT121</t>
-  </si>
-  <si>
-    <t>1/1/1813</t>
-  </si>
-  <si>
-    <t>WCT122</t>
-  </si>
-  <si>
-    <t>1/1/1814</t>
-  </si>
-  <si>
-    <t>WCT123</t>
-  </si>
-  <si>
-    <t>1/1/1913</t>
-  </si>
-  <si>
-    <t>WCT124</t>
-  </si>
-  <si>
-    <t>1/1/2012</t>
-  </si>
-  <si>
-    <t>WCT125</t>
-  </si>
-  <si>
-    <t>1/1/2013</t>
-  </si>
-  <si>
-    <t>TR1</t>
-  </si>
-  <si>
-    <t>TR2</t>
-  </si>
-  <si>
-    <t>TR3</t>
-  </si>
-  <si>
-    <t>TR4</t>
-  </si>
-  <si>
-    <t>TR5</t>
-  </si>
-  <si>
-    <t>TR6</t>
-  </si>
-  <si>
-    <t>TR7</t>
-  </si>
-  <si>
-    <t>TR8</t>
-  </si>
-  <si>
-    <t>TR9</t>
-  </si>
-  <si>
-    <t>4/16/1811</t>
-  </si>
-  <si>
-    <t>TR10</t>
-  </si>
-  <si>
-    <t>4/16/2013</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2244,7 +2244,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6"/>
     </row>
     <row ht="15.75" r="7" spans="1:26" thickBot="1" x14ac:dyDescent="0.3">
@@ -2438,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,7 +2510,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2527,15 +2527,15 @@
         <v>86</v>
       </c>
       <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>87</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -2547,18 +2547,18 @@
         <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -2570,18 +2570,18 @@
         <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -2593,18 +2593,18 @@
         <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -2616,18 +2616,18 @@
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -2639,18 +2639,18 @@
         <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -2662,64 +2662,64 @@
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -2728,21 +2728,21 @@
         <v>84</v>
       </c>
       <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>108</v>
-      </c>
-      <c r="E13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -2751,21 +2751,21 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>111</v>
-      </c>
-      <c r="E14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>113</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -2774,21 +2774,21 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>114</v>
-      </c>
-      <c r="E15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>116</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -2797,19 +2797,19 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17"/>
     </row>
   </sheetData>
@@ -2822,7 +2822,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E4" sqref="E4:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,9 +2893,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -2910,15 +2910,15 @@
         <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -2930,18 +2930,18 @@
         <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -2953,18 +2953,18 @@
         <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -2976,18 +2976,18 @@
         <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -2999,18 +2999,18 @@
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -3022,18 +3022,18 @@
         <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -3045,64 +3045,64 @@
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -3111,21 +3111,21 @@
         <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -3134,21 +3134,21 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -3157,21 +3157,21 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -3180,21 +3180,21 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -3206,18 +3206,18 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -3229,18 +3229,18 @@
         <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -3252,18 +3252,18 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -3275,16 +3275,16 @@
         <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21"/>
     </row>
   </sheetData>
@@ -3297,7 +3297,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E4" sqref="E4:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,9 +3368,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -3379,21 +3379,21 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>139</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -3402,21 +3402,21 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>142</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -3425,228 +3425,228 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>145</v>
-      </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>148</v>
-      </c>
-      <c r="D7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -3655,21 +3655,21 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -3678,21 +3678,21 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -3701,228 +3701,228 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -3931,21 +3931,21 @@
         <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -3954,21 +3954,21 @@
         <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -3977,226 +3977,226 @@
         <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
         <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40"/>
     </row>
   </sheetData>
@@ -4209,7 +4209,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E4" sqref="E4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4280,9 +4280,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -4291,88 +4291,88 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
   </sheetData>
@@ -4385,7 +4385,7 @@
   <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E4" sqref="E4:E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4456,9 +4456,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -4467,21 +4467,21 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -4490,21 +4490,21 @@
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -4516,18 +4516,18 @@
         <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -4536,21 +4536,21 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="F7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -4559,21 +4559,21 @@
         <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -4582,21 +4582,21 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -4605,21 +4605,21 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -4631,18 +4631,18 @@
         <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -4651,21 +4651,21 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="F12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -4674,21 +4674,21 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="F13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -4697,21 +4697,21 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="F14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -4720,21 +4720,21 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -4749,15 +4749,15 @@
         <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -4766,21 +4766,21 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -4789,251 +4789,251 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
         <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>239</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="F22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="F24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
         <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>253</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -5042,21 +5042,21 @@
         <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -5065,21 +5065,21 @@
         <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
@@ -5091,18 +5091,18 @@
         <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
@@ -5111,21 +5111,21 @@
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
@@ -5134,21 +5134,21 @@
         <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
@@ -5157,21 +5157,21 @@
         <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
@@ -5180,21 +5180,21 @@
         <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
@@ -5206,18 +5206,18 @@
         <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="F36" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s">
         <v>59</v>
@@ -5226,21 +5226,21 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="F37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
@@ -5249,21 +5249,21 @@
         <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="F38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
@@ -5272,21 +5272,21 @@
         <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="F39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
@@ -5295,21 +5295,21 @@
         <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
@@ -5321,18 +5321,18 @@
         <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
@@ -5341,21 +5341,21 @@
         <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="F42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
@@ -5364,251 +5364,251 @@
         <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>282</v>
       </c>
       <c r="F43" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B46" t="s">
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
         <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B47" t="s">
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B48" t="s">
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B50" t="s">
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
         <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -5617,21 +5617,21 @@
         <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>86</v>
+        <v>294</v>
       </c>
       <c r="F54" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -5640,21 +5640,21 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="F55" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -5666,18 +5666,18 @@
         <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -5686,21 +5686,21 @@
         <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>299</v>
       </c>
       <c r="F57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -5709,21 +5709,21 @@
         <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
-        <v>86</v>
+        <v>301</v>
       </c>
       <c r="F58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -5732,21 +5732,21 @@
         <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>86</v>
+        <v>303</v>
       </c>
       <c r="F59" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -5755,21 +5755,21 @@
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>86</v>
+        <v>305</v>
       </c>
       <c r="F60" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -5781,18 +5781,18 @@
         <v>85</v>
       </c>
       <c r="E61" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -5801,21 +5801,21 @@
         <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="F62" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
@@ -5824,21 +5824,21 @@
         <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="F63" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
@@ -5847,21 +5847,21 @@
         <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B65" t="s">
         <v>60</v>
@@ -5870,21 +5870,21 @@
         <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E65" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -5896,18 +5896,18 @@
         <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B67" t="s">
         <v>60</v>
@@ -5916,21 +5916,21 @@
         <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E67" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F67" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B68" t="s">
         <v>60</v>
@@ -5939,251 +5939,251 @@
         <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E68" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F68" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B69" t="s">
         <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E69" t="s">
-        <v>86</v>
+        <v>317</v>
       </c>
       <c r="F69" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B70" t="s">
         <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E70" t="s">
-        <v>86</v>
+        <v>319</v>
       </c>
       <c r="F70" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B71" t="s">
         <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D71" t="s">
         <v>85</v>
       </c>
       <c r="E71" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F71" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B72" t="s">
         <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E72" t="s">
-        <v>86</v>
+        <v>322</v>
       </c>
       <c r="F72" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B73" t="s">
         <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E73" t="s">
-        <v>86</v>
+        <v>324</v>
       </c>
       <c r="F73" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B74" t="s">
         <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E74" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B75" t="s">
         <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E75" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B76" t="s">
         <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
         <v>85</v>
       </c>
       <c r="E76" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E77" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D78" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B79" t="s">
         <v>61</v>
@@ -6192,21 +6192,21 @@
         <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
-        <v>86</v>
+        <v>331</v>
       </c>
       <c r="F79" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B80" t="s">
         <v>61</v>
@@ -6215,21 +6215,21 @@
         <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>86</v>
+        <v>333</v>
       </c>
       <c r="F80" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G80" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B81" t="s">
         <v>61</v>
@@ -6241,18 +6241,18 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="F81" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B82" t="s">
         <v>61</v>
@@ -6261,21 +6261,21 @@
         <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E82" t="s">
-        <v>86</v>
+        <v>337</v>
       </c>
       <c r="F82" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B83" t="s">
         <v>61</v>
@@ -6284,21 +6284,21 @@
         <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E83" t="s">
-        <v>86</v>
+        <v>339</v>
       </c>
       <c r="F83" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B84" t="s">
         <v>61</v>
@@ -6307,21 +6307,21 @@
         <v>59</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
-        <v>86</v>
+        <v>341</v>
       </c>
       <c r="F84" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B85" t="s">
         <v>61</v>
@@ -6330,21 +6330,21 @@
         <v>59</v>
       </c>
       <c r="D85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
-        <v>86</v>
+        <v>343</v>
       </c>
       <c r="F85" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s">
         <v>61</v>
@@ -6356,18 +6356,18 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>86</v>
+        <v>345</v>
       </c>
       <c r="F86" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B87" t="s">
         <v>61</v>
@@ -6376,21 +6376,21 @@
         <v>59</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E87" t="s">
-        <v>86</v>
+        <v>347</v>
       </c>
       <c r="F87" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B88" t="s">
         <v>61</v>
@@ -6399,21 +6399,21 @@
         <v>59</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E88" t="s">
-        <v>86</v>
+        <v>349</v>
       </c>
       <c r="F88" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B89" t="s">
         <v>61</v>
@@ -6422,21 +6422,21 @@
         <v>84</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
       <c r="F89" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B90" t="s">
         <v>61</v>
@@ -6445,21 +6445,21 @@
         <v>84</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
-        <v>86</v>
+        <v>353</v>
       </c>
       <c r="F90" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G90" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B91" t="s">
         <v>61</v>
@@ -6471,18 +6471,18 @@
         <v>85</v>
       </c>
       <c r="E91" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F91" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B92" t="s">
         <v>61</v>
@@ -6491,21 +6491,21 @@
         <v>84</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E92" t="s">
-        <v>86</v>
+        <v>356</v>
       </c>
       <c r="F92" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B93" t="s">
         <v>61</v>
@@ -6514,251 +6514,251 @@
         <v>84</v>
       </c>
       <c r="D93" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E93" t="s">
-        <v>86</v>
+        <v>358</v>
       </c>
       <c r="F93" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G93" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B94" t="s">
         <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
-        <v>86</v>
+        <v>360</v>
       </c>
       <c r="F94" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G94" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B95" t="s">
         <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E95" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
       <c r="F95" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B96" t="s">
         <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
         <v>85</v>
       </c>
       <c r="E96" t="s">
-        <v>86</v>
+        <v>364</v>
       </c>
       <c r="F96" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G96" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B97" t="s">
         <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E97" t="s">
-        <v>86</v>
+        <v>366</v>
       </c>
       <c r="F97" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G97" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B98" t="s">
         <v>61</v>
       </c>
       <c r="C98" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E98" t="s">
-        <v>86</v>
+        <v>368</v>
       </c>
       <c r="F98" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G98" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B99" t="s">
         <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E99" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G99" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B100" t="s">
         <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E100" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B101" t="s">
         <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D101" t="s">
         <v>85</v>
       </c>
       <c r="E101" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F101" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B102" t="s">
         <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D102" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E102" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F102" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G102" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B103" t="s">
         <v>61</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E103" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G103" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B104" t="s">
         <v>62</v>
@@ -6767,21 +6767,21 @@
         <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E104" t="s">
-        <v>86</v>
+        <v>375</v>
       </c>
       <c r="F104" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G104" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B105" t="s">
         <v>62</v>
@@ -6790,21 +6790,21 @@
         <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>86</v>
+        <v>377</v>
       </c>
       <c r="F105" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G105" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B106" t="s">
         <v>62</v>
@@ -6816,18 +6816,18 @@
         <v>85</v>
       </c>
       <c r="E106" t="s">
-        <v>86</v>
+        <v>379</v>
       </c>
       <c r="F106" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G106" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B107" t="s">
         <v>62</v>
@@ -6836,21 +6836,21 @@
         <v>58</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E107" t="s">
-        <v>86</v>
+        <v>381</v>
       </c>
       <c r="F107" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G107" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B108" t="s">
         <v>62</v>
@@ -6859,21 +6859,21 @@
         <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E108" t="s">
-        <v>86</v>
+        <v>383</v>
       </c>
       <c r="F108" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G108" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B109" t="s">
         <v>62</v>
@@ -6882,21 +6882,21 @@
         <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E109" t="s">
-        <v>86</v>
+        <v>385</v>
       </c>
       <c r="F109" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G109" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B110" t="s">
         <v>62</v>
@@ -6905,21 +6905,21 @@
         <v>59</v>
       </c>
       <c r="D110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>86</v>
+        <v>387</v>
       </c>
       <c r="F110" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G110" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B111" t="s">
         <v>62</v>
@@ -6931,18 +6931,18 @@
         <v>85</v>
       </c>
       <c r="E111" t="s">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="F111" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G111" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B112" t="s">
         <v>62</v>
@@ -6951,21 +6951,21 @@
         <v>59</v>
       </c>
       <c r="D112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E112" t="s">
-        <v>86</v>
+        <v>391</v>
       </c>
       <c r="F112" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G112" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B113" t="s">
         <v>62</v>
@@ -6974,21 +6974,21 @@
         <v>59</v>
       </c>
       <c r="D113" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E113" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="F113" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G113" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B114" t="s">
         <v>62</v>
@@ -6997,21 +6997,21 @@
         <v>84</v>
       </c>
       <c r="D114" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E114" t="s">
-        <v>86</v>
+        <v>395</v>
       </c>
       <c r="F114" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G114" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B115" t="s">
         <v>62</v>
@@ -7020,21 +7020,21 @@
         <v>84</v>
       </c>
       <c r="D115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E115" t="s">
-        <v>86</v>
+        <v>397</v>
       </c>
       <c r="F115" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G115" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B116" t="s">
         <v>62</v>
@@ -7046,18 +7046,18 @@
         <v>85</v>
       </c>
       <c r="E116" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F116" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G116" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B117" t="s">
         <v>62</v>
@@ -7066,21 +7066,21 @@
         <v>84</v>
       </c>
       <c r="D117" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E117" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
       <c r="F117" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G117" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B118" t="s">
         <v>62</v>
@@ -7089,249 +7089,249 @@
         <v>84</v>
       </c>
       <c r="D118" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E118" t="s">
-        <v>86</v>
+        <v>402</v>
       </c>
       <c r="F118" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G118" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B119" t="s">
         <v>62</v>
       </c>
       <c r="C119" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D119" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E119" t="s">
-        <v>86</v>
+        <v>404</v>
       </c>
       <c r="F119" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G119" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B120" t="s">
         <v>62</v>
       </c>
       <c r="C120" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D120" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E120" t="s">
-        <v>86</v>
+        <v>406</v>
       </c>
       <c r="F120" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G120" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B121" t="s">
         <v>62</v>
       </c>
       <c r="C121" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D121" t="s">
         <v>85</v>
       </c>
       <c r="E121" t="s">
-        <v>86</v>
+        <v>408</v>
       </c>
       <c r="F121" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G121" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B122" t="s">
         <v>62</v>
       </c>
       <c r="C122" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D122" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E122" t="s">
-        <v>86</v>
+        <v>410</v>
       </c>
       <c r="F122" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G122" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B123" t="s">
         <v>62</v>
       </c>
       <c r="C123" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D123" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E123" t="s">
-        <v>86</v>
+        <v>412</v>
       </c>
       <c r="F123" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G123" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B124" t="s">
         <v>62</v>
       </c>
       <c r="C124" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D124" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E124" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="F124" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G124" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B125" t="s">
         <v>62</v>
       </c>
       <c r="C125" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D125" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E125" t="s">
-        <v>86</v>
+        <v>416</v>
       </c>
       <c r="F125" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G125" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B126" t="s">
         <v>62</v>
       </c>
       <c r="C126" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D126" t="s">
         <v>85</v>
       </c>
       <c r="E126" t="s">
-        <v>86</v>
+        <v>418</v>
       </c>
       <c r="F126" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G126" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B127" t="s">
         <v>62</v>
       </c>
       <c r="C127" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D127" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E127" t="s">
-        <v>86</v>
+        <v>420</v>
       </c>
       <c r="F127" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G127" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B128" t="s">
         <v>62</v>
       </c>
       <c r="C128" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D128" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E128" t="s">
-        <v>86</v>
+        <v>422</v>
       </c>
       <c r="F128" t="s">
-        <v>424</v>
+        <v>104</v>
       </c>
       <c r="G128" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129"/>
     </row>
   </sheetData>
@@ -7344,7 +7344,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G4" sqref="G4:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7415,9 +7415,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -7426,90 +7426,90 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -7518,21 +7518,21 @@
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -7541,21 +7541,21 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -7564,21 +7564,21 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -7587,21 +7587,21 @@
         <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -7613,18 +7613,18 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>432</v>
       </c>
       <c r="F12" t="s">
-        <v>434</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -7636,16 +7636,16 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>434</v>
       </c>
       <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
         <v>436</v>
       </c>
-      <c r="G13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14"/>
     </row>
   </sheetData>
